--- a/src/resources/excel-model/单位问卷—机关—打印版.xlsx
+++ b/src/resources/excel-model/单位问卷—机关—打印版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12480" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="单位情况" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="342">
   <si>
     <t>《黑龙江省人才普查和流失情况专项工作》单位人才统计平台操作说明</t>
   </si>
@@ -90,6 +90,42 @@
   </si>
   <si>
     <t>&lt;%=_data_[0][2].value%&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年销售收入总额（万元）</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;%=_data_[0][10].value%&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年研发经费支出额（万元）</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;%=_data_[0][11].value%&gt;</t>
   </si>
   <si>
     <r>
@@ -1709,6 +1745,9 @@
     <t>无</t>
   </si>
   <si>
+    <t>&lt;%forRow rs1,i in _data_[3]%&gt;&lt;%=rs1.year%&gt;</t>
+  </si>
+  <si>
     <t>离职原因（多选）</t>
   </si>
   <si>
@@ -1806,6 +1845,42 @@
   </si>
   <si>
     <t>个人晋升空间窄</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.info[127]['离职原因（多选）'][0]=='气候环境恶劣'?'√':''%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.info[127]['离职原因（多选）'][1]=='房价高'?'√':''%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.info[127]['离职原因（多选）'][2]=='公共服务效率低'?'√':''%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.info[127]['离职原因（多选）'][3]=='医疗资源不满意'?'√':''%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.info[127]['离职原因（多选）'][4]=='教育资源不满意'?'√':''%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.info[127]['离职原因（多选）'][5]=='赡养老人压力大'?'√':''%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.info[127]['离职原因（多选）'][6]=='收入低'?'√':''%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.info[127]['离职原因（多选）'][7]=='工作环境不满意'?'√':''%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.info[127]['离职原因（多选）'][8]=='与同事关系相处不融洽'?'√':''%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.info[127]['离职原因（多选）'][9]=='所在单位发展前景差'?'√':''%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.info[127]['离职原因（多选）'][10]=='个人晋升空间窄'?'√':''%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.info[127]['离职原因（多选）'][11]=='其他'?'√':''%&gt;</t>
   </si>
   <si>
     <t>单位流失人才信息表—机关</t>
@@ -1844,21 +1919,6 @@
     <t>收
 入
 低</t>
-  </si>
-  <si>
-    <t>领军人才</t>
-  </si>
-  <si>
-    <t>高精尖人才</t>
-  </si>
-  <si>
-    <t>急需紧缺人才</t>
-  </si>
-  <si>
-    <t>后备人才</t>
-  </si>
-  <si>
-    <t>一般性人才</t>
   </si>
   <si>
     <t>&lt;%forRow rs1,i in _data_[4]%&gt;&lt;%=i+1%&gt;</t>
@@ -2060,16 +2120,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2091,29 +2165,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2127,30 +2196,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2166,6 +2218,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2175,7 +2234,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2183,22 +2242,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2227,7 +2287,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2239,13 +2323,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2257,7 +2341,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2269,37 +2365,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2311,7 +2389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2323,19 +2407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2353,19 +2425,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2377,37 +2467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2510,11 +2570,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2536,6 +2626,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -2545,11 +2646,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2568,45 +2667,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2615,10 +2675,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2627,16 +2687,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2645,115 +2705,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2911,9 +2971,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2991,6 +3048,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3314,20 +3374,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:L47"/>
+  <dimension ref="A3:L49"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="4" width="10.6333333333333" style="71" customWidth="1"/>
-    <col min="5" max="5" width="10.6333333333333" style="72" customWidth="1"/>
-    <col min="6" max="10" width="10.6333333333333" style="71" customWidth="1"/>
-    <col min="11" max="11" width="37.725" style="71" customWidth="1"/>
-    <col min="12" max="12" width="31.3666666666667" style="71" customWidth="1"/>
-    <col min="13" max="16373" width="8" style="71" customWidth="1"/>
+    <col min="1" max="4" width="10.6333333333333" style="70" customWidth="1"/>
+    <col min="5" max="5" width="10.6333333333333" style="71" customWidth="1"/>
+    <col min="6" max="10" width="10.6333333333333" style="70" customWidth="1"/>
+    <col min="11" max="11" width="37.725" style="70" customWidth="1"/>
+    <col min="12" max="12" width="31.3666666666667" style="70" customWidth="1"/>
+    <col min="13" max="16373" width="8" style="70" customWidth="1"/>
     <col min="16374" max="16379" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3342,8 +3402,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
     </row>
     <row r="4" ht="18.75" spans="1:10">
       <c r="A4" s="1"/>
@@ -3382,563 +3442,599 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:10">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
     </row>
     <row r="8" ht="14.25" spans="1:10">
-      <c r="A8" s="73"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
     </row>
     <row r="9" ht="14.25" spans="1:10">
-      <c r="A9" s="73"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
     </row>
     <row r="10" ht="14.25" spans="1:10">
-      <c r="A10" s="73"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
     </row>
     <row r="11" ht="14.25" spans="1:10">
-      <c r="A11" s="73"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
     </row>
     <row r="12" ht="14.25" spans="1:10">
-      <c r="A12" s="73"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
     </row>
-    <row r="13" s="71" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A13" s="73"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
+    <row r="13" s="70" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
     </row>
-    <row r="14" s="71" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A14" s="73"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="76" t="s">
+    <row r="14" s="70" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A14" s="72"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="L14" s="77" t="s">
+      <c r="L14" s="76" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" s="71" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A15" s="73"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="76" t="s">
+    <row r="15" s="70" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="77" t="s">
+      <c r="L15" s="76" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" s="71" customFormat="1" ht="14" customHeight="1" spans="1:12">
-      <c r="A16" s="73"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="76" t="s">
+    <row r="16" s="70" customFormat="1" ht="14" customHeight="1" spans="1:12">
+      <c r="A16" s="72"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="77" t="s">
+      <c r="L16" s="76" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" s="71" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A17" s="73"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="78" t="s">
+    <row r="17" s="70" customFormat="1" ht="17" customHeight="1" spans="1:12">
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="77" t="s">
+      <c r="L17" s="76" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" s="71" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A18" s="73"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="78" t="s">
+    <row r="18" s="70" customFormat="1" ht="17" customHeight="1" spans="1:12">
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="77" t="s">
+      <c r="L18" s="76" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" s="71" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A19" s="73"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="76" t="s">
+    <row r="19" s="70" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="77" t="s">
+      <c r="L19" s="76" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" s="71" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="76" t="s">
+    <row r="20" s="70" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A20" s="72"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="77" t="s">
+      <c r="L20" s="76" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" s="71" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="76" t="s">
+    <row r="21" s="70" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="77" t="s">
+      <c r="L21" s="76" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" s="71" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="76" t="s">
+    <row r="22" s="70" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="77" t="s">
+      <c r="L22" s="76" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" s="71" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A23" s="73"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="76" t="s">
+    <row r="23" s="70" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="77" t="s">
+      <c r="L23" s="76" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" s="71" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A24" s="73"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
+    <row r="24" s="70" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="76" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="25" s="71" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A25" s="73"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
+    <row r="25" s="70" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A25" s="72"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="76" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="26" ht="14.25" spans="1:10">
-      <c r="A26" s="73"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
+    <row r="26" s="70" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A26" s="72"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
     </row>
-    <row r="27" ht="14.25" spans="1:10">
-      <c r="A27" s="73"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
+    <row r="27" s="70" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A27" s="72"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
     </row>
     <row r="28" ht="14.25" spans="1:10">
-      <c r="A28" s="73"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
+      <c r="A28" s="72"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
     </row>
     <row r="29" ht="14.25" spans="1:10">
-      <c r="A29" s="73"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
     </row>
     <row r="30" ht="14.25" spans="1:10">
-      <c r="A30" s="73"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
     </row>
     <row r="31" ht="14.25" spans="1:10">
-      <c r="A31" s="73"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="75"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
     </row>
     <row r="32" ht="14.25" spans="1:10">
-      <c r="A32" s="73"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
     </row>
     <row r="33" ht="14.25" spans="1:10">
-      <c r="A33" s="73"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
+      <c r="A33" s="72"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
     </row>
     <row r="34" ht="14.25" spans="1:10">
-      <c r="A34" s="73"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
     </row>
     <row r="35" ht="14.25" spans="1:10">
-      <c r="A35" s="73"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
+      <c r="A35" s="72"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
     </row>
     <row r="36" ht="14.25" spans="1:10">
-      <c r="A36" s="73"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
     </row>
     <row r="37" ht="14.25" spans="1:10">
-      <c r="A37" s="73"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
+      <c r="A37" s="72"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
     </row>
     <row r="38" ht="14.25" spans="1:10">
-      <c r="A38" s="73"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
     </row>
     <row r="39" ht="14.25" spans="1:10">
-      <c r="A39" s="73"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
+      <c r="A39" s="72"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
     </row>
     <row r="40" ht="14.25" spans="1:10">
-      <c r="A40" s="73"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
+      <c r="A40" s="72"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
     </row>
     <row r="41" ht="14.25" spans="1:10">
-      <c r="A41" s="73"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
+      <c r="A41" s="72"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="74"/>
     </row>
     <row r="42" ht="14.25" spans="1:10">
-      <c r="A42" s="73"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
+      <c r="A42" s="72"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
     </row>
     <row r="43" ht="14.25" spans="1:10">
-      <c r="A43" s="73"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
+      <c r="A43" s="72"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
     </row>
     <row r="44" ht="14.25" spans="1:10">
-      <c r="A44" s="73"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
+      <c r="A44" s="72"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
     </row>
     <row r="45" ht="14.25" spans="1:10">
-      <c r="A45" s="73"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="75"/>
-      <c r="J45" s="75"/>
+      <c r="A45" s="72"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="74"/>
     </row>
     <row r="46" ht="14.25" spans="1:10">
-      <c r="A46" s="73"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
+      <c r="A46" s="72"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
     </row>
     <row r="47" ht="14.25" spans="1:10">
-      <c r="A47" s="73"/>
-      <c r="B47" s="73"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="73"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="75"/>
+      <c r="A47" s="72"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+    </row>
+    <row r="48" ht="14.25" spans="1:10">
+      <c r="A48" s="72"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74"/>
+    </row>
+    <row r="49" ht="14.25" spans="1:10">
+      <c r="A49" s="72"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A7:H47"/>
+    <mergeCell ref="A7:H49"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.118110236220472" bottom="0.118110236220472" header="0" footer="0"/>
@@ -3955,163 +4051,163 @@
   <dimension ref="A1:DH16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:BM16"/>
+      <selection activeCell="BH21" sqref="BH21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.63333333333333" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.26666666666667" style="52" customWidth="1"/>
-    <col min="2" max="5" width="2.63333333333333" style="52" customWidth="1"/>
-    <col min="6" max="110" width="2.63333333333333" style="62" customWidth="1"/>
-    <col min="111" max="127" width="2.63333333333333" style="52" customWidth="1"/>
-    <col min="128" max="136" width="2.09166666666667" style="52" customWidth="1"/>
-    <col min="137" max="16384" width="2.63333333333333" style="52"/>
+    <col min="1" max="1" width="4.26666666666667" style="51" customWidth="1"/>
+    <col min="2" max="5" width="2.63333333333333" style="51" customWidth="1"/>
+    <col min="6" max="110" width="2.63333333333333" style="61" customWidth="1"/>
+    <col min="111" max="127" width="2.63333333333333" style="51" customWidth="1"/>
+    <col min="128" max="136" width="2.09166666666667" style="51" customWidth="1"/>
+    <col min="137" max="16384" width="2.63333333333333" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" s="60" customFormat="1" ht="21" spans="1:110">
-      <c r="A1" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="57"/>
-      <c r="BC1" s="57"/>
-      <c r="BD1" s="57"/>
-      <c r="BE1" s="57"/>
-      <c r="BF1" s="57"/>
-      <c r="BG1" s="57"/>
-      <c r="BH1" s="57"/>
-      <c r="BI1" s="57"/>
-      <c r="BJ1" s="57"/>
-      <c r="BK1" s="57"/>
-      <c r="BL1" s="57"/>
-      <c r="BM1" s="57"/>
-      <c r="BN1" s="57"/>
-      <c r="BO1" s="67"/>
-      <c r="BP1" s="67"/>
-      <c r="BQ1" s="67"/>
-      <c r="BR1" s="67"/>
-      <c r="BS1" s="67"/>
-      <c r="BT1" s="67"/>
-      <c r="BU1" s="67"/>
-      <c r="BV1" s="67"/>
-      <c r="BW1" s="67"/>
-      <c r="BX1" s="67"/>
-      <c r="BY1" s="67"/>
-      <c r="BZ1" s="67"/>
-      <c r="CA1" s="67"/>
-      <c r="CB1" s="67"/>
-      <c r="CC1" s="67"/>
-      <c r="CD1" s="67"/>
-      <c r="CE1" s="67"/>
-      <c r="CF1" s="67"/>
-      <c r="CG1" s="67"/>
-      <c r="CH1" s="67"/>
-      <c r="CI1" s="67"/>
-      <c r="CJ1" s="67"/>
-      <c r="CK1" s="67"/>
-      <c r="CL1" s="67"/>
-      <c r="CM1" s="67"/>
-      <c r="CN1" s="67"/>
-      <c r="CO1" s="67"/>
-      <c r="CP1" s="67"/>
-      <c r="CQ1" s="67"/>
-      <c r="CR1" s="67"/>
-      <c r="CS1" s="67"/>
-      <c r="CT1" s="67"/>
-      <c r="CU1" s="67"/>
-      <c r="CV1" s="67"/>
-      <c r="CW1" s="67"/>
-      <c r="CX1" s="67"/>
-      <c r="CY1" s="67"/>
-      <c r="CZ1" s="67"/>
-      <c r="DA1" s="67"/>
-      <c r="DB1" s="67"/>
-      <c r="DC1" s="67"/>
-      <c r="DD1" s="67"/>
-      <c r="DE1" s="67"/>
-      <c r="DF1" s="67"/>
+    <row r="1" s="59" customFormat="1" ht="21" spans="1:110">
+      <c r="A1" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="56"/>
+      <c r="BF1" s="56"/>
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="56"/>
+      <c r="BI1" s="56"/>
+      <c r="BJ1" s="56"/>
+      <c r="BK1" s="56"/>
+      <c r="BL1" s="56"/>
+      <c r="BM1" s="56"/>
+      <c r="BN1" s="56"/>
+      <c r="BO1" s="66"/>
+      <c r="BP1" s="66"/>
+      <c r="BQ1" s="66"/>
+      <c r="BR1" s="66"/>
+      <c r="BS1" s="66"/>
+      <c r="BT1" s="66"/>
+      <c r="BU1" s="66"/>
+      <c r="BV1" s="66"/>
+      <c r="BW1" s="66"/>
+      <c r="BX1" s="66"/>
+      <c r="BY1" s="66"/>
+      <c r="BZ1" s="66"/>
+      <c r="CA1" s="66"/>
+      <c r="CB1" s="66"/>
+      <c r="CC1" s="66"/>
+      <c r="CD1" s="66"/>
+      <c r="CE1" s="66"/>
+      <c r="CF1" s="66"/>
+      <c r="CG1" s="66"/>
+      <c r="CH1" s="66"/>
+      <c r="CI1" s="66"/>
+      <c r="CJ1" s="66"/>
+      <c r="CK1" s="66"/>
+      <c r="CL1" s="66"/>
+      <c r="CM1" s="66"/>
+      <c r="CN1" s="66"/>
+      <c r="CO1" s="66"/>
+      <c r="CP1" s="66"/>
+      <c r="CQ1" s="66"/>
+      <c r="CR1" s="66"/>
+      <c r="CS1" s="66"/>
+      <c r="CT1" s="66"/>
+      <c r="CU1" s="66"/>
+      <c r="CV1" s="66"/>
+      <c r="CW1" s="66"/>
+      <c r="CX1" s="66"/>
+      <c r="CY1" s="66"/>
+      <c r="CZ1" s="66"/>
+      <c r="DA1" s="66"/>
+      <c r="DB1" s="66"/>
+      <c r="DC1" s="66"/>
+      <c r="DD1" s="66"/>
+      <c r="DE1" s="66"/>
+      <c r="DF1" s="66"/>
     </row>
-    <row r="3" s="61" customFormat="1" ht="14" customHeight="1" spans="1:66">
-      <c r="A3" s="63" t="s">
-        <v>23</v>
+    <row r="3" s="60" customFormat="1" ht="14" customHeight="1" spans="1:66">
+      <c r="A3" s="62" t="s">
+        <v>27</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="58"/>
+        <v>29</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="57"/>
       <c r="F3" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="59" t="s">
-        <v>29</v>
+      <c r="P3" s="58" t="s">
+        <v>33</v>
       </c>
       <c r="Q3" s="45"/>
       <c r="R3" s="45"/>
@@ -4164,12 +4260,12 @@
       <c r="BM3" s="45"/>
       <c r="BN3" s="46"/>
     </row>
-    <row r="4" s="61" customFormat="1" ht="14" customHeight="1" spans="1:66">
-      <c r="A4" s="64"/>
+    <row r="4" s="60" customFormat="1" ht="14" customHeight="1" spans="1:66">
+      <c r="A4" s="63"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -4181,7 +4277,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="43" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="45"/>
       <c r="R4" s="45"/>
@@ -4189,7 +4285,7 @@
       <c r="T4" s="45"/>
       <c r="U4" s="46"/>
       <c r="V4" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
@@ -4236,130 +4332,130 @@
       <c r="BM4" s="4"/>
       <c r="BN4" s="4"/>
     </row>
-    <row r="5" s="61" customFormat="1" ht="65" customHeight="1" spans="1:66">
-      <c r="A5" s="64"/>
+    <row r="5" s="60" customFormat="1" ht="65" customHeight="1" spans="1:66">
+      <c r="A5" s="63"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P5" s="44" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="44" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R5" s="44" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S5" s="44" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T5" s="44" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V5" s="59" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="V5" s="58" t="s">
+        <v>54</v>
       </c>
       <c r="W5" s="45"/>
       <c r="X5" s="45"/>
       <c r="Y5" s="45"/>
       <c r="Z5" s="46"/>
-      <c r="AA5" s="59" t="s">
-        <v>51</v>
+      <c r="AA5" s="58" t="s">
+        <v>55</v>
       </c>
       <c r="AB5" s="45"/>
       <c r="AC5" s="45"/>
       <c r="AD5" s="45"/>
       <c r="AE5" s="46"/>
-      <c r="AF5" s="59" t="s">
-        <v>52</v>
+      <c r="AF5" s="58" t="s">
+        <v>56</v>
       </c>
       <c r="AG5" s="45"/>
       <c r="AH5" s="45"/>
       <c r="AI5" s="45"/>
       <c r="AJ5" s="46"/>
-      <c r="AK5" s="59" t="s">
-        <v>53</v>
+      <c r="AK5" s="58" t="s">
+        <v>57</v>
       </c>
       <c r="AL5" s="45"/>
       <c r="AM5" s="45"/>
       <c r="AN5" s="45"/>
       <c r="AO5" s="46"/>
-      <c r="AP5" s="59" t="s">
-        <v>54</v>
+      <c r="AP5" s="58" t="s">
+        <v>58</v>
       </c>
       <c r="AQ5" s="45"/>
       <c r="AR5" s="45"/>
       <c r="AS5" s="45"/>
       <c r="AT5" s="46"/>
-      <c r="AU5" s="59" t="s">
-        <v>55</v>
+      <c r="AU5" s="58" t="s">
+        <v>59</v>
       </c>
       <c r="AV5" s="45"/>
       <c r="AW5" s="45"/>
       <c r="AX5" s="45"/>
       <c r="AY5" s="46"/>
-      <c r="AZ5" s="59" t="s">
-        <v>56</v>
+      <c r="AZ5" s="58" t="s">
+        <v>60</v>
       </c>
       <c r="BA5" s="45"/>
       <c r="BB5" s="45"/>
       <c r="BC5" s="45"/>
       <c r="BD5" s="46"/>
-      <c r="BE5" s="59" t="s">
-        <v>57</v>
+      <c r="BE5" s="58" t="s">
+        <v>61</v>
       </c>
       <c r="BF5" s="45"/>
       <c r="BG5" s="45"/>
       <c r="BH5" s="45"/>
       <c r="BI5" s="46"/>
-      <c r="BJ5" s="59" t="s">
-        <v>58</v>
+      <c r="BJ5" s="58" t="s">
+        <v>62</v>
       </c>
       <c r="BK5" s="45"/>
       <c r="BL5" s="45"/>
       <c r="BM5" s="45"/>
       <c r="BN5" s="46"/>
     </row>
-    <row r="6" s="61" customFormat="1" ht="45" customHeight="1" spans="1:66">
-      <c r="A6" s="65"/>
+    <row r="6" s="60" customFormat="1" ht="45" customHeight="1" spans="1:66">
+      <c r="A6" s="64"/>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
@@ -4381,147 +4477,147 @@
       <c r="T6" s="32"/>
       <c r="U6" s="32"/>
       <c r="V6" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Z6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AA6" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="AB6" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AE6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AF6" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="AG6" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AJ6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AK6" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="AL6" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AM6" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AO6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AP6" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="AQ6" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AR6" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AS6" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AT6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AU6" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="AV6" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AY6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AZ6" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="BA6" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="BC6" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="BD6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BE6" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="BF6" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="BG6" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="BH6" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="BI6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BJ6" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="BK6" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="BL6" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="BM6" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="BN6" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="7" s="61" customFormat="1" ht="12" customHeight="1" spans="1:66">
-      <c r="A7" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="65" t="s">
-        <v>65</v>
+    <row r="7" s="60" customFormat="1" ht="12" customHeight="1" spans="1:66">
+      <c r="A7" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>69</v>
       </c>
       <c r="C7" s="32">
         <v>1</v>
@@ -4718,215 +4814,215 @@
     </row>
     <row r="8" ht="63" spans="1:112">
       <c r="A8" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="35" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="R8" s="35" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="S8" s="35" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T8" s="35" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="U8" s="35" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="V8" s="35" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W8" s="35" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="X8" s="35" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Y8" s="35" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Z8" s="35" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AA8" s="35" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AB8" s="35" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="AC8" s="32" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AD8" s="32" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AE8" s="32" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AF8" s="32" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AG8" s="32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AH8" s="32" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AI8" s="32" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AJ8" s="32" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AK8" s="32" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AL8" s="32" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AM8" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AN8" s="32" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AO8" s="32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AP8" s="32" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AQ8" s="32" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AR8" s="32" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AS8" s="32" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AT8" s="32" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AU8" s="32" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AV8" s="32" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AW8" s="32" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AX8" s="32" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AY8" s="32" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AZ8" s="32" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="BA8" s="32" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="BB8" s="32" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="BC8" s="32" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BD8" s="32" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="BE8" s="32" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="BF8" s="32" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="BG8" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="BH8" s="32" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="BI8" s="32" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="BJ8" s="32" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="BK8" s="32" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="BL8" s="32" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="BM8" s="32" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="BN8" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="DG8" s="62"/>
-      <c r="DH8" s="62"/>
+        <v>135</v>
+      </c>
+      <c r="DG8" s="61"/>
+      <c r="DH8" s="61"/>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:66">
-      <c r="A11" s="63" t="s">
-        <v>23</v>
+      <c r="A11" s="62" t="s">
+        <v>27</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>33</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
@@ -4981,7 +5077,7 @@
       <c r="BB11" s="45"/>
       <c r="BC11" s="46"/>
       <c r="BD11" s="50" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="BE11" s="7"/>
       <c r="BF11" s="7"/>
@@ -4992,13 +5088,13 @@
       <c r="BK11" s="7"/>
       <c r="BL11" s="7"/>
       <c r="BM11" s="7"/>
-      <c r="BN11" s="68"/>
+      <c r="BN11" s="67"/>
     </row>
     <row r="12" ht="13.5" spans="1:66">
-      <c r="A12" s="64"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="59" t="s">
-        <v>31</v>
+      <c r="C12" s="58" t="s">
+        <v>35</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45"/>
@@ -5040,7 +5136,7 @@
       <c r="AO12" s="45"/>
       <c r="AP12" s="46"/>
       <c r="AQ12" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AR12" s="4"/>
       <c r="AS12" s="4"/>
@@ -5048,17 +5144,17 @@
       <c r="AU12" s="4"/>
       <c r="AV12" s="4"/>
       <c r="AW12" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AX12" s="4"/>
       <c r="AY12" s="4"/>
       <c r="AZ12" s="4"/>
       <c r="BA12" s="4"/>
       <c r="BB12" s="10" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="BC12" s="10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="BD12" s="7"/>
       <c r="BE12" s="7"/>
@@ -5070,256 +5166,256 @@
       <c r="BK12" s="7"/>
       <c r="BL12" s="7"/>
       <c r="BM12" s="7"/>
-      <c r="BN12" s="69"/>
+      <c r="BN12" s="68"/>
     </row>
     <row r="13" ht="65" customHeight="1" spans="1:66">
-      <c r="A13" s="64"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="14"/>
       <c r="C13" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="10" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AR13" s="10" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AS13" s="10" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AT13" s="10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AU13" s="10" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AV13" s="10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AW13" s="10" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AX13" s="10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AY13" s="10" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AZ13" s="10" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="BA13" s="10" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="BB13" s="14"/>
       <c r="BC13" s="14"/>
-      <c r="BD13" s="66" t="s">
-        <v>154</v>
+      <c r="BD13" s="65" t="s">
+        <v>158</v>
       </c>
       <c r="BE13" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="BF13" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="BG13" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="BH13" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="BI13" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="BJ13" s="4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="BK13" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="BL13" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="BM13" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BN13" s="69"/>
+        <v>167</v>
+      </c>
+      <c r="BN13" s="68"/>
     </row>
     <row r="14" ht="45" customHeight="1" spans="1:66">
-      <c r="A14" s="65"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="32"/>
       <c r="C14" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="I14" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="N14" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="R14" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="S14" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="W14" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="X14" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AA14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AB14" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="AC14" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AD14" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AF14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AG14" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="AH14" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AI14" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AJ14" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AK14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AL14" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="AM14" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AN14" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AO14" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AP14" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AQ14" s="32"/>
       <c r="AR14" s="32"/>
@@ -5344,14 +5440,14 @@
       <c r="BK14" s="4"/>
       <c r="BL14" s="4"/>
       <c r="BM14" s="4"/>
-      <c r="BN14" s="69"/>
+      <c r="BN14" s="68"/>
     </row>
     <row r="15" ht="13.5" spans="1:66">
-      <c r="A15" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="65" t="s">
-        <v>65</v>
+      <c r="A15" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>69</v>
       </c>
       <c r="C15" s="32">
         <v>65</v>
@@ -5542,205 +5638,205 @@
       <c r="BM15" s="4">
         <v>127</v>
       </c>
-      <c r="BN15" s="69"/>
+      <c r="BN15" s="68"/>
     </row>
     <row r="16" ht="63" spans="1:66">
       <c r="A16" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="I16" s="35" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="J16" s="35" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L16" s="35" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P16" s="35" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="35" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="S16" s="35" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="T16" s="35" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="U16" s="35" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="V16" s="35" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="W16" s="35" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="X16" s="35" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Y16" s="35" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Z16" s="35" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AA16" s="35" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AB16" s="35" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AC16" s="35" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AD16" s="35" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AE16" s="35" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AF16" s="35" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AG16" s="35" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AH16" s="35" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AI16" s="35" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AJ16" s="35" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AK16" s="35" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AL16" s="35" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AM16" s="35" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AN16" s="35" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AO16" s="35" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AP16" s="35" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ16" s="35" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AR16" s="35" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AS16" s="35" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AT16" s="35" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AU16" s="35" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AV16" s="35" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AW16" s="35" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AX16" s="35" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AY16" s="35" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AZ16" s="35" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="BA16" s="35" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="BB16" s="35" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="BC16" s="35" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="BD16" s="35" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="BE16" s="35" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="BF16" s="35" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="BG16" s="35" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="BH16" s="35" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="BI16" s="35" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="BJ16" s="35" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="BK16" s="35" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="BL16" s="35" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="BM16" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="BN16" s="70"/>
+        <v>230</v>
+      </c>
+      <c r="BN16" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="76">
@@ -5836,120 +5932,120 @@
   <dimension ref="A1:XFC16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="A16:B16"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.0916666666667" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4" style="52" customWidth="1"/>
-    <col min="2" max="2" width="2.63333333333333" style="52" customWidth="1"/>
-    <col min="3" max="6" width="2.63333333333333" style="53" customWidth="1"/>
-    <col min="7" max="8" width="2.63333333333333" style="54" customWidth="1"/>
-    <col min="9" max="117" width="2.63333333333333" style="55" customWidth="1"/>
-    <col min="118" max="16371" width="18.0916666666667" style="55" customWidth="1"/>
-    <col min="16372" max="16381" width="18.0916666666667" style="53" customWidth="1"/>
-    <col min="16382" max="16384" width="18.0916666666667" style="52"/>
+    <col min="1" max="1" width="4" style="51" customWidth="1"/>
+    <col min="2" max="2" width="2.63333333333333" style="51" customWidth="1"/>
+    <col min="3" max="6" width="2.63333333333333" style="52" customWidth="1"/>
+    <col min="7" max="8" width="2.63333333333333" style="53" customWidth="1"/>
+    <col min="9" max="117" width="2.63333333333333" style="54" customWidth="1"/>
+    <col min="118" max="16371" width="18.0916666666667" style="54" customWidth="1"/>
+    <col min="16372" max="16381" width="18.0916666666667" style="52" customWidth="1"/>
+    <col min="16382" max="16384" width="18.0916666666667" style="51"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:65">
-      <c r="A1" s="56" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="57"/>
-      <c r="BC1" s="57"/>
-      <c r="BD1" s="57"/>
-      <c r="BE1" s="57"/>
-      <c r="BF1" s="57"/>
-      <c r="BG1" s="57"/>
-      <c r="BH1" s="57"/>
-      <c r="BI1" s="57"/>
-      <c r="BJ1" s="57"/>
-      <c r="BK1" s="57"/>
-      <c r="BL1" s="57"/>
-      <c r="BM1" s="57"/>
+      <c r="A1" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="56"/>
+      <c r="BF1" s="56"/>
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="56"/>
+      <c r="BI1" s="56"/>
+      <c r="BJ1" s="56"/>
+      <c r="BK1" s="56"/>
+      <c r="BL1" s="56"/>
+      <c r="BM1" s="56"/>
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:16383">
       <c r="A3" s="37" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="58"/>
+        <v>232</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="57"/>
       <c r="F3" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59" t="s">
-        <v>29</v>
+      <c r="K3" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="58" t="s">
+        <v>33</v>
       </c>
       <c r="Q3" s="45"/>
       <c r="R3" s="45"/>
@@ -6001,29 +6097,29 @@
       <c r="BL3" s="45"/>
       <c r="BM3" s="45"/>
       <c r="BN3" s="46"/>
-      <c r="XER3" s="55"/>
-      <c r="XES3" s="55"/>
-      <c r="XFB3" s="53"/>
-      <c r="XFC3" s="53"/>
+      <c r="XER3" s="54"/>
+      <c r="XES3" s="54"/>
+      <c r="XFB3" s="52"/>
+      <c r="XFC3" s="52"/>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:16383">
       <c r="A4" s="41"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
       <c r="P4" s="43" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="45"/>
       <c r="R4" s="45"/>
@@ -6031,7 +6127,7 @@
       <c r="T4" s="45"/>
       <c r="U4" s="46"/>
       <c r="V4" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
@@ -6077,136 +6173,136 @@
       <c r="BL4" s="4"/>
       <c r="BM4" s="4"/>
       <c r="BN4" s="4"/>
-      <c r="XER4" s="55"/>
-      <c r="XES4" s="55"/>
-      <c r="XFB4" s="53"/>
-      <c r="XFC4" s="53"/>
+      <c r="XER4" s="54"/>
+      <c r="XES4" s="54"/>
+      <c r="XFB4" s="52"/>
+      <c r="XFC4" s="52"/>
     </row>
     <row r="5" ht="65" customHeight="1" spans="1:16383">
       <c r="A5" s="41"/>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
       <c r="D5" s="37" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N5" s="38" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O5" s="38" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P5" s="44" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="44" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R5" s="44" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S5" s="44" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T5" s="44" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V5" s="59" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="V5" s="58" t="s">
+        <v>54</v>
       </c>
       <c r="W5" s="45"/>
       <c r="X5" s="45"/>
       <c r="Y5" s="45"/>
       <c r="Z5" s="46"/>
-      <c r="AA5" s="59" t="s">
-        <v>51</v>
+      <c r="AA5" s="58" t="s">
+        <v>55</v>
       </c>
       <c r="AB5" s="45"/>
       <c r="AC5" s="45"/>
       <c r="AD5" s="45"/>
       <c r="AE5" s="46"/>
-      <c r="AF5" s="59" t="s">
-        <v>52</v>
+      <c r="AF5" s="58" t="s">
+        <v>56</v>
       </c>
       <c r="AG5" s="45"/>
       <c r="AH5" s="45"/>
       <c r="AI5" s="45"/>
       <c r="AJ5" s="46"/>
-      <c r="AK5" s="59" t="s">
-        <v>53</v>
+      <c r="AK5" s="58" t="s">
+        <v>57</v>
       </c>
       <c r="AL5" s="45"/>
       <c r="AM5" s="45"/>
       <c r="AN5" s="45"/>
       <c r="AO5" s="46"/>
-      <c r="AP5" s="59" t="s">
-        <v>54</v>
+      <c r="AP5" s="58" t="s">
+        <v>58</v>
       </c>
       <c r="AQ5" s="45"/>
       <c r="AR5" s="45"/>
       <c r="AS5" s="45"/>
       <c r="AT5" s="46"/>
-      <c r="AU5" s="59" t="s">
-        <v>55</v>
+      <c r="AU5" s="58" t="s">
+        <v>59</v>
       </c>
       <c r="AV5" s="45"/>
       <c r="AW5" s="45"/>
       <c r="AX5" s="45"/>
       <c r="AY5" s="46"/>
-      <c r="AZ5" s="59" t="s">
-        <v>56</v>
+      <c r="AZ5" s="58" t="s">
+        <v>60</v>
       </c>
       <c r="BA5" s="45"/>
       <c r="BB5" s="45"/>
       <c r="BC5" s="45"/>
       <c r="BD5" s="46"/>
-      <c r="BE5" s="59" t="s">
-        <v>57</v>
+      <c r="BE5" s="58" t="s">
+        <v>61</v>
       </c>
       <c r="BF5" s="45"/>
       <c r="BG5" s="45"/>
       <c r="BH5" s="45"/>
       <c r="BI5" s="46"/>
-      <c r="BJ5" s="59" t="s">
-        <v>58</v>
+      <c r="BJ5" s="58" t="s">
+        <v>62</v>
       </c>
       <c r="BK5" s="45"/>
       <c r="BL5" s="45"/>
       <c r="BM5" s="45"/>
       <c r="BN5" s="46"/>
-      <c r="XER5" s="55"/>
-      <c r="XES5" s="55"/>
-      <c r="XFB5" s="53"/>
-      <c r="XFC5" s="53"/>
+      <c r="XER5" s="54"/>
+      <c r="XES5" s="54"/>
+      <c r="XFB5" s="52"/>
+      <c r="XFC5" s="52"/>
     </row>
     <row r="6" ht="45" customHeight="1" spans="1:16383">
       <c r="A6" s="33"/>
@@ -6231,151 +6327,151 @@
       <c r="T6" s="32"/>
       <c r="U6" s="32"/>
       <c r="V6" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Z6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AA6" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="AB6" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AE6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AF6" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="AG6" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AJ6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AK6" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="AL6" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AM6" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AO6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AP6" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="AQ6" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AR6" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AS6" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AT6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AU6" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="AV6" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AY6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AZ6" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="BA6" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="BC6" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="BD6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BE6" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="BF6" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="BG6" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="BH6" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="BI6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BJ6" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="BK6" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="BL6" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="BM6" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="BN6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="XER6" s="55"/>
-      <c r="XES6" s="55"/>
-      <c r="XFB6" s="53"/>
-      <c r="XFC6" s="53"/>
+        <v>67</v>
+      </c>
+      <c r="XER6" s="54"/>
+      <c r="XES6" s="54"/>
+      <c r="XFB6" s="52"/>
+      <c r="XFC6" s="52"/>
     </row>
     <row r="7" ht="12" customHeight="1" spans="1:16383">
       <c r="A7" s="33" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C7" s="34">
         <v>1</v>
@@ -6569,224 +6665,224 @@
       <c r="BN7" s="32">
         <v>64</v>
       </c>
-      <c r="XER7" s="55"/>
-      <c r="XES7" s="55"/>
-      <c r="XFB7" s="53"/>
-      <c r="XFC7" s="53"/>
+      <c r="XER7" s="54"/>
+      <c r="XES7" s="54"/>
+      <c r="XFB7" s="52"/>
+      <c r="XFC7" s="52"/>
     </row>
     <row r="8" ht="63" spans="1:16383">
       <c r="A8" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="35" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="R8" s="35" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="S8" s="35" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T8" s="35" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="U8" s="35" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="V8" s="35" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W8" s="35" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="X8" s="35" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Y8" s="35" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Z8" s="35" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AA8" s="35" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AB8" s="35" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="AC8" s="32" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AD8" s="32" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AE8" s="32" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AF8" s="32" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AG8" s="32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AH8" s="32" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AI8" s="32" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AJ8" s="32" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AK8" s="32" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AL8" s="32" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AM8" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AN8" s="32" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AO8" s="32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AP8" s="32" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AQ8" s="32" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AR8" s="32" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AS8" s="32" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AT8" s="32" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AU8" s="32" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AV8" s="32" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AW8" s="32" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AX8" s="32" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AY8" s="32" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AZ8" s="32" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="BA8" s="32" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="BB8" s="32" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="BC8" s="32" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BD8" s="32" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="BE8" s="32" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="BF8" s="32" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="BG8" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="BH8" s="32" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="BI8" s="32" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="BJ8" s="32" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="BK8" s="32" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="BL8" s="32" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="BM8" s="32" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="BN8" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="XER8" s="55"/>
-      <c r="XES8" s="55"/>
-      <c r="XFB8" s="53"/>
-      <c r="XFC8" s="53"/>
+        <v>135</v>
+      </c>
+      <c r="XER8" s="54"/>
+      <c r="XES8" s="54"/>
+      <c r="XFB8" s="52"/>
+      <c r="XFC8" s="52"/>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:16381">
       <c r="A11" s="37" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>33</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
@@ -6841,7 +6937,7 @@
       <c r="BB11" s="45"/>
       <c r="BC11" s="46"/>
       <c r="BD11" s="50" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="BE11" s="7"/>
       <c r="BF11" s="7"/>
@@ -6852,22 +6948,22 @@
       <c r="BK11" s="7"/>
       <c r="BL11" s="7"/>
       <c r="BM11" s="7"/>
-      <c r="XEM11" s="53"/>
-      <c r="XEN11" s="53"/>
-      <c r="XEO11" s="53"/>
-      <c r="XEP11" s="53"/>
-      <c r="XEQ11" s="53"/>
-      <c r="XEW11" s="52"/>
-      <c r="XEX11" s="52"/>
-      <c r="XEY11" s="52"/>
-      <c r="XEZ11" s="52"/>
-      <c r="XFA11" s="52"/>
+      <c r="XEM11" s="52"/>
+      <c r="XEN11" s="52"/>
+      <c r="XEO11" s="52"/>
+      <c r="XEP11" s="52"/>
+      <c r="XEQ11" s="52"/>
+      <c r="XEW11" s="51"/>
+      <c r="XEX11" s="51"/>
+      <c r="XEY11" s="51"/>
+      <c r="XEZ11" s="51"/>
+      <c r="XFA11" s="51"/>
     </row>
     <row r="12" ht="14" customHeight="1" spans="1:16381">
       <c r="A12" s="41"/>
       <c r="B12" s="42"/>
-      <c r="C12" s="59" t="s">
-        <v>31</v>
+      <c r="C12" s="58" t="s">
+        <v>35</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45"/>
@@ -6909,7 +7005,7 @@
       <c r="AO12" s="45"/>
       <c r="AP12" s="46"/>
       <c r="AQ12" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AR12" s="4"/>
       <c r="AS12" s="4"/>
@@ -6917,17 +7013,17 @@
       <c r="AU12" s="4"/>
       <c r="AV12" s="4"/>
       <c r="AW12" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AX12" s="4"/>
       <c r="AY12" s="4"/>
       <c r="AZ12" s="4"/>
       <c r="BA12" s="4"/>
       <c r="BB12" s="10" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="BC12" s="10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="BD12" s="7"/>
       <c r="BE12" s="7"/>
@@ -6939,274 +7035,274 @@
       <c r="BK12" s="7"/>
       <c r="BL12" s="7"/>
       <c r="BM12" s="7"/>
-      <c r="XEM12" s="53"/>
-      <c r="XEN12" s="53"/>
-      <c r="XEO12" s="53"/>
-      <c r="XEP12" s="53"/>
-      <c r="XEQ12" s="53"/>
-      <c r="XEW12" s="52"/>
-      <c r="XEX12" s="52"/>
-      <c r="XEY12" s="52"/>
-      <c r="XEZ12" s="52"/>
-      <c r="XFA12" s="52"/>
+      <c r="XEM12" s="52"/>
+      <c r="XEN12" s="52"/>
+      <c r="XEO12" s="52"/>
+      <c r="XEP12" s="52"/>
+      <c r="XEQ12" s="52"/>
+      <c r="XEW12" s="51"/>
+      <c r="XEX12" s="51"/>
+      <c r="XEY12" s="51"/>
+      <c r="XEZ12" s="51"/>
+      <c r="XFA12" s="51"/>
     </row>
     <row r="13" ht="65" customHeight="1" spans="1:16381">
       <c r="A13" s="41"/>
       <c r="B13" s="42"/>
       <c r="C13" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="10" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AR13" s="10" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AS13" s="10" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AT13" s="10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AU13" s="10" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AV13" s="10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AW13" s="10" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AX13" s="10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AY13" s="10" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AZ13" s="10" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="BA13" s="10" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="BB13" s="14"/>
       <c r="BC13" s="14"/>
       <c r="BD13" s="44" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="BE13" s="10" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="BF13" s="10" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="BG13" s="10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="BH13" s="10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="BI13" s="10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="BJ13" s="10" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="BK13" s="10" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="BL13" s="10" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="BM13" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="XEM13" s="53"/>
-      <c r="XEN13" s="53"/>
-      <c r="XEO13" s="53"/>
-      <c r="XEP13" s="53"/>
-      <c r="XEQ13" s="53"/>
-      <c r="XEW13" s="52"/>
-      <c r="XEX13" s="52"/>
-      <c r="XEY13" s="52"/>
-      <c r="XEZ13" s="52"/>
-      <c r="XFA13" s="52"/>
+        <v>167</v>
+      </c>
+      <c r="XEM13" s="52"/>
+      <c r="XEN13" s="52"/>
+      <c r="XEO13" s="52"/>
+      <c r="XEP13" s="52"/>
+      <c r="XEQ13" s="52"/>
+      <c r="XEW13" s="51"/>
+      <c r="XEX13" s="51"/>
+      <c r="XEY13" s="51"/>
+      <c r="XEZ13" s="51"/>
+      <c r="XFA13" s="51"/>
     </row>
     <row r="14" ht="45" customHeight="1" spans="1:16381">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
       <c r="C14" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="I14" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="N14" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="R14" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="S14" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="W14" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="X14" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AA14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AB14" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="AC14" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AD14" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AF14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AG14" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="AH14" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AI14" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AJ14" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AK14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AL14" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="AM14" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AN14" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AO14" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AP14" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AQ14" s="32"/>
       <c r="AR14" s="32"/>
@@ -7231,23 +7327,23 @@
       <c r="BK14" s="32"/>
       <c r="BL14" s="32"/>
       <c r="BM14" s="32"/>
-      <c r="XEM14" s="53"/>
-      <c r="XEN14" s="53"/>
-      <c r="XEO14" s="53"/>
-      <c r="XEP14" s="53"/>
-      <c r="XEQ14" s="53"/>
-      <c r="XEW14" s="52"/>
-      <c r="XEX14" s="52"/>
-      <c r="XEY14" s="52"/>
-      <c r="XEZ14" s="52"/>
-      <c r="XFA14" s="52"/>
+      <c r="XEM14" s="52"/>
+      <c r="XEN14" s="52"/>
+      <c r="XEO14" s="52"/>
+      <c r="XEP14" s="52"/>
+      <c r="XEQ14" s="52"/>
+      <c r="XEW14" s="51"/>
+      <c r="XEX14" s="51"/>
+      <c r="XEY14" s="51"/>
+      <c r="XEZ14" s="51"/>
+      <c r="XFA14" s="51"/>
     </row>
     <row r="15" spans="1:16381">
       <c r="A15" s="33" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C15" s="32">
         <v>65</v>
@@ -7438,223 +7534,223 @@
       <c r="BM15" s="32">
         <v>127</v>
       </c>
-      <c r="XEM15" s="53"/>
-      <c r="XEN15" s="53"/>
-      <c r="XEO15" s="53"/>
-      <c r="XEP15" s="53"/>
-      <c r="XEQ15" s="53"/>
-      <c r="XEW15" s="52"/>
-      <c r="XEX15" s="52"/>
-      <c r="XEY15" s="52"/>
-      <c r="XEZ15" s="52"/>
-      <c r="XFA15" s="52"/>
+      <c r="XEM15" s="52"/>
+      <c r="XEN15" s="52"/>
+      <c r="XEO15" s="52"/>
+      <c r="XEP15" s="52"/>
+      <c r="XEQ15" s="52"/>
+      <c r="XEW15" s="51"/>
+      <c r="XEX15" s="51"/>
+      <c r="XEY15" s="51"/>
+      <c r="XEZ15" s="51"/>
+      <c r="XFA15" s="51"/>
     </row>
     <row r="16" ht="63" spans="1:16381">
       <c r="A16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="M16" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="N16" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="O16" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="P16" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q16" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="R16" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="S16" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="T16" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="U16" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="V16" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="W16" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="X16" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y16" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z16" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA16" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB16" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC16" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD16" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE16" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF16" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG16" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH16" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI16" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ16" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK16" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL16" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="AM16" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="AN16" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="AO16" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="AP16" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="AQ16" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="AR16" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="AS16" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT16" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="AU16" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="AV16" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW16" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="AX16" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="AY16" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="AZ16" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="BA16" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="BB16" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="BC16" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD16" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE16" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="BF16" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="BG16" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="BH16" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="BI16" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="BJ16" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="BK16" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="BL16" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="L16" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="M16" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="N16" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="O16" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="P16" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q16" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="R16" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="S16" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="T16" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="U16" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="V16" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="W16" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="X16" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y16" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z16" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA16" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB16" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC16" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD16" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE16" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="AF16" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG16" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH16" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="AI16" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="AJ16" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="AK16" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="AL16" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="AM16" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="AN16" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="AO16" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="AP16" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="AQ16" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="AR16" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="AS16" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="AT16" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="AU16" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="AV16" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="AW16" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX16" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="AY16" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ16" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="BA16" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="BB16" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="BC16" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="BD16" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="BE16" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="BF16" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="BG16" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="BH16" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="BI16" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="BJ16" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="BK16" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="BL16" s="35" t="s">
-        <v>225</v>
-      </c>
       <c r="BM16" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="XEM16" s="53"/>
-      <c r="XEN16" s="53"/>
-      <c r="XEO16" s="53"/>
-      <c r="XEP16" s="53"/>
-      <c r="XEQ16" s="53"/>
-      <c r="XEW16" s="52"/>
-      <c r="XEX16" s="52"/>
-      <c r="XEY16" s="52"/>
-      <c r="XEZ16" s="52"/>
-      <c r="XFA16" s="52"/>
+        <v>230</v>
+      </c>
+      <c r="XEM16" s="52"/>
+      <c r="XEN16" s="52"/>
+      <c r="XEO16" s="52"/>
+      <c r="XEP16" s="52"/>
+      <c r="XEQ16" s="52"/>
+      <c r="XEW16" s="51"/>
+      <c r="XEX16" s="51"/>
+      <c r="XEY16" s="51"/>
+      <c r="XEZ16" s="51"/>
+      <c r="XFA16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="75">
@@ -7746,10 +7842,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFC25"/>
+  <dimension ref="A1:XFC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="BH16" sqref="BH16"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="AL22" sqref="AL22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.0916666666667" defaultRowHeight="13.5"/>
@@ -7765,7 +7861,7 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:72">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7841,34 +7937,34 @@
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:16383">
       <c r="A3" s="25" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E3" s="27"/>
       <c r="F3" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="27" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
       <c r="O3" s="27"/>
       <c r="P3" s="39" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q3" s="40"/>
       <c r="R3" s="40"/>
@@ -7947,7 +8043,7 @@
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
       <c r="P4" s="43" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="45"/>
       <c r="R4" s="45"/>
@@ -7955,7 +8051,7 @@
       <c r="T4" s="45"/>
       <c r="U4" s="46"/>
       <c r="V4" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
@@ -8016,124 +8112,124 @@
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
       <c r="D5" s="25" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="O5" s="26" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P5" s="44" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="44" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R5" s="44" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S5" s="44" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T5" s="44" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="V5" s="39" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="W5" s="40"/>
       <c r="X5" s="40"/>
       <c r="Y5" s="40"/>
       <c r="Z5" s="47"/>
       <c r="AA5" s="39" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AB5" s="40"/>
       <c r="AC5" s="40"/>
       <c r="AD5" s="40"/>
       <c r="AE5" s="47"/>
       <c r="AF5" s="39" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AG5" s="40"/>
       <c r="AH5" s="40"/>
       <c r="AI5" s="40"/>
       <c r="AJ5" s="47"/>
       <c r="AK5" s="39" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AL5" s="40"/>
       <c r="AM5" s="40"/>
       <c r="AN5" s="40"/>
       <c r="AO5" s="47"/>
       <c r="AP5" s="39" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AQ5" s="40"/>
       <c r="AR5" s="40"/>
       <c r="AS5" s="40"/>
       <c r="AT5" s="47"/>
       <c r="AU5" s="39" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AV5" s="40"/>
       <c r="AW5" s="40"/>
       <c r="AX5" s="40"/>
       <c r="AY5" s="47"/>
       <c r="AZ5" s="39" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="BA5" s="40"/>
       <c r="BB5" s="40"/>
       <c r="BC5" s="40"/>
       <c r="BD5" s="47"/>
       <c r="BE5" s="39" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="BF5" s="40"/>
       <c r="BG5" s="40"/>
       <c r="BH5" s="40"/>
       <c r="BI5" s="47"/>
       <c r="BJ5" s="39" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="BK5" s="40"/>
       <c r="BL5" s="40"/>
       <c r="BM5" s="40"/>
       <c r="BN5" s="47"/>
       <c r="BO5" s="6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="BP5" s="6"/>
       <c r="BQ5" s="6"/>
@@ -8167,154 +8263,154 @@
       <c r="T6" s="32"/>
       <c r="U6" s="32"/>
       <c r="V6" s="6" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Z6" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA6" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="AA6" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="AB6" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AC6" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AE6" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AF6" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="AF6" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="AG6" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AH6" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AI6" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AJ6" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK6" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="AK6" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="AL6" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AM6" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AN6" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AO6" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AP6" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="AP6" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="AQ6" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AR6" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AS6" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AT6" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU6" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="AU6" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="AV6" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AW6" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AX6" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AY6" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AZ6" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="AZ6" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="BA6" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="BB6" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="BC6" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="BD6" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="BE6" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="BE6" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="BF6" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="BG6" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="BH6" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="BI6" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="BJ6" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="BJ6" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="BK6" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="BL6" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="BM6" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="BN6" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="BO6" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="BO6" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="BP6" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="BQ6" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="BR6" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="BS6" s="6" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="XER6" s="24"/>
       <c r="XES6" s="24"/>
@@ -8323,10 +8419,10 @@
     </row>
     <row r="7" ht="12" customHeight="1" spans="1:16383">
       <c r="A7" s="33" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C7" s="34">
         <v>1</v>
@@ -8542,217 +8638,217 @@
     </row>
     <row r="8" ht="63" spans="1:16383">
       <c r="A8" s="7" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="35" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="R8" s="35" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="S8" s="35" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T8" s="35" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="U8" s="35" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="V8" s="35" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W8" s="35" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="X8" s="35" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Y8" s="35" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Z8" s="35" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AA8" s="35" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AB8" s="35" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="AC8" s="32" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AD8" s="32" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AE8" s="32" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AF8" s="32" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AG8" s="32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AH8" s="32" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AI8" s="32" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AJ8" s="32" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AK8" s="32" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AL8" s="32" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AM8" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AN8" s="32" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AO8" s="32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AP8" s="32" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AQ8" s="32" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AR8" s="32" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AS8" s="32" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AT8" s="32" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AU8" s="32" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AV8" s="32" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AW8" s="32" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AX8" s="32" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AY8" s="32" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AZ8" s="32" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="BA8" s="32" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="BB8" s="32" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="BC8" s="32" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BD8" s="32" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="BE8" s="32" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="BF8" s="32" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="BG8" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="BH8" s="32" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="BI8" s="32" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="BJ8" s="32" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="BK8" s="32" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="BL8" s="32" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="BM8" s="32" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="BN8" s="32" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="BO8" s="35" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="BP8" s="35" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="BQ8" s="35" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="BR8" s="35" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="BS8" s="35" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="XER8" s="24"/>
       <c r="XES8" s="24"/>
@@ -8769,13 +8865,13 @@
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:16381">
       <c r="A11" s="37" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -8825,7 +8921,7 @@
       <c r="AW11" s="40"/>
       <c r="AX11" s="47"/>
       <c r="AY11" s="50" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AZ11" s="7"/>
       <c r="BA11" s="7"/>
@@ -8837,7 +8933,7 @@
       <c r="BG11" s="7"/>
       <c r="BH11" s="7"/>
       <c r="BI11" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="BJ11" s="5"/>
       <c r="BK11" s="5"/>
@@ -8875,7 +8971,7 @@
       <c r="A12" s="41"/>
       <c r="B12" s="42"/>
       <c r="C12" s="39" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -8912,7 +9008,7 @@
       <c r="AJ12" s="40"/>
       <c r="AK12" s="47"/>
       <c r="AL12" s="6" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AM12" s="6"/>
       <c r="AN12" s="6"/>
@@ -8920,17 +9016,17 @@
       <c r="AP12" s="6"/>
       <c r="AQ12" s="6"/>
       <c r="AR12" s="6" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AS12" s="6"/>
       <c r="AT12" s="6"/>
       <c r="AU12" s="6"/>
       <c r="AV12" s="6"/>
       <c r="AW12" s="13" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AX12" s="13" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="AY12" s="7"/>
       <c r="AZ12" s="7"/>
@@ -8979,154 +9075,154 @@
       <c r="A13" s="41"/>
       <c r="B13" s="42"/>
       <c r="C13" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="6" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
       <c r="AE13" s="6"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="6" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
       <c r="AK13" s="6"/>
       <c r="AL13" s="13" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AM13" s="13" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AN13" s="13" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AO13" s="13" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AP13" s="13" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AQ13" s="44" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AR13" s="13" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AS13" s="13" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AT13" s="13" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="AU13" s="13" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AV13" s="13" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="AW13" s="17"/>
       <c r="AX13" s="17"/>
       <c r="AY13" s="44" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AZ13" s="10" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="BA13" s="10" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="BB13" s="10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="BC13" s="10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="BD13" s="10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="BE13" s="10" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="BF13" s="10" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="BG13" s="10" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="BH13" s="10" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="BI13" s="13" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="BJ13" s="13" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="BK13" s="13" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="BL13" s="13" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="BM13" s="13" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="BN13" s="13" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="BO13" s="13" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="BP13" s="13" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="BQ13" s="13" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="BR13" s="13" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="BS13" s="13" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="BT13" s="6" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="XEH13" s="22"/>
       <c r="XEI13" s="22"/>
@@ -9153,109 +9249,109 @@
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
       <c r="C14" s="6" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="I14" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L14" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="M14" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="N14" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q14" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="R14" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="R14" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="S14" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="V14" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="W14" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="W14" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="X14" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Y14" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AA14" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB14" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="AB14" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="AC14" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AD14" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AE14" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AF14" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG14" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="AG14" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="AH14" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AI14" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AJ14" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AK14" s="6" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AL14" s="48"/>
       <c r="AM14" s="48"/>
@@ -9315,10 +9411,10 @@
     </row>
     <row r="15" spans="1:16381">
       <c r="A15" s="33" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C15" s="32">
         <v>70</v>
@@ -9551,199 +9647,223 @@
       <c r="XEZ15"/>
       <c r="XFA15"/>
     </row>
-    <row r="16" ht="63" spans="1:16381">
+    <row r="16" ht="195" spans="1:16381">
       <c r="A16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="M16" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="N16" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="O16" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="P16" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q16" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="R16" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="S16" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="T16" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="U16" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="V16" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="W16" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="X16" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y16" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z16" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA16" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB16" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC16" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD16" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE16" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF16" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG16" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH16" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI16" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ16" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK16" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL16" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM16" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN16" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO16" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP16" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="AQ16" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR16" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="AS16" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="AT16" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU16" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV16" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="AW16" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="AX16" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="AY16" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ16" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="BA16" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="BB16" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="BC16" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="BD16" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="BE16" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="BF16" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="BG16" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="L16" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="M16" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="N16" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="O16" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="P16" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q16" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="R16" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="S16" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="T16" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="U16" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="V16" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="W16" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="X16" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y16" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z16" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA16" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB16" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC16" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD16" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="AE16" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF16" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG16" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH16" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="AI16" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="AJ16" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="AK16" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="AL16" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="AM16" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="AN16" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="AO16" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="AP16" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="AQ16" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="AR16" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="AS16" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="AT16" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="AU16" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="AV16" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="AW16" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="AX16" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="AY16" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="AZ16" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="BA16" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="BB16" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="BC16" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="BD16" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="BE16" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="BF16" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="BG16" s="35" t="s">
-        <v>225</v>
-      </c>
       <c r="BH16" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="BI16" s="8"/>
-      <c r="BJ16" s="8"/>
-      <c r="BK16" s="8"/>
-      <c r="BL16" s="8"/>
-      <c r="BM16" s="8"/>
-      <c r="BN16" s="8"/>
-      <c r="BO16" s="8"/>
-      <c r="BP16" s="8"/>
-      <c r="BQ16" s="8"/>
-      <c r="BR16" s="8"/>
-      <c r="BS16" s="8"/>
-      <c r="BT16" s="51"/>
+        <v>230</v>
+      </c>
+      <c r="BI16" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="BJ16" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="BK16" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="BL16" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="BM16" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="BN16" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="BO16" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BP16" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BQ16" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="BR16" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="BS16" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="BT16" s="8" t="s">
+        <v>309</v>
+      </c>
       <c r="XEH16" s="22"/>
       <c r="XEI16" s="22"/>
       <c r="XEJ16" s="22"/>
@@ -9764,888 +9884,6 @@
       <c r="XEY16"/>
       <c r="XEZ16"/>
       <c r="XFA16"/>
-    </row>
-    <row r="17" spans="1:16381">
-      <c r="A17" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="19"/>
-      <c r="AJ17" s="19"/>
-      <c r="AK17" s="19"/>
-      <c r="AL17" s="19"/>
-      <c r="AM17" s="19"/>
-      <c r="AN17" s="19"/>
-      <c r="AO17" s="19"/>
-      <c r="AP17" s="19"/>
-      <c r="AQ17" s="19"/>
-      <c r="AR17" s="8"/>
-      <c r="AS17" s="8"/>
-      <c r="AT17" s="8"/>
-      <c r="AU17" s="8"/>
-      <c r="AV17" s="8"/>
-      <c r="AW17" s="8"/>
-      <c r="AX17" s="8"/>
-      <c r="AY17" s="8"/>
-      <c r="AZ17" s="8"/>
-      <c r="BA17" s="8"/>
-      <c r="BB17" s="8"/>
-      <c r="BC17" s="8"/>
-      <c r="BD17" s="8"/>
-      <c r="BE17" s="8"/>
-      <c r="BF17" s="8"/>
-      <c r="BG17" s="8"/>
-      <c r="BH17" s="8"/>
-      <c r="BI17" s="8"/>
-      <c r="BJ17" s="8"/>
-      <c r="BK17" s="8"/>
-      <c r="BL17" s="8"/>
-      <c r="BM17" s="8"/>
-      <c r="BN17" s="8"/>
-      <c r="BO17" s="8"/>
-      <c r="BP17" s="8"/>
-      <c r="BQ17" s="8"/>
-      <c r="BR17" s="8"/>
-      <c r="BS17" s="8"/>
-      <c r="BT17" s="51"/>
-      <c r="XEH17" s="22"/>
-      <c r="XEI17" s="22"/>
-      <c r="XEJ17" s="22"/>
-      <c r="XEK17" s="22"/>
-      <c r="XEL17" s="22"/>
-      <c r="XEM17" s="22"/>
-      <c r="XEN17" s="22"/>
-      <c r="XEO17" s="22"/>
-      <c r="XEP17" s="22"/>
-      <c r="XEQ17" s="22"/>
-      <c r="XER17"/>
-      <c r="XES17"/>
-      <c r="XET17"/>
-      <c r="XEU17"/>
-      <c r="XEV17"/>
-      <c r="XEW17"/>
-      <c r="XEX17"/>
-      <c r="XEY17"/>
-      <c r="XEZ17"/>
-      <c r="XFA17"/>
-    </row>
-    <row r="18" spans="1:16381">
-      <c r="A18" s="7">
-        <v>2016</v>
-      </c>
-      <c r="B18" s="7">
-        <v>3</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="19"/>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="19"/>
-      <c r="AM18" s="19"/>
-      <c r="AN18" s="19"/>
-      <c r="AO18" s="19"/>
-      <c r="AP18" s="19"/>
-      <c r="AQ18" s="19"/>
-      <c r="AR18" s="8"/>
-      <c r="AS18" s="8"/>
-      <c r="AT18" s="8"/>
-      <c r="AU18" s="8"/>
-      <c r="AV18" s="8"/>
-      <c r="AW18" s="8"/>
-      <c r="AX18" s="8"/>
-      <c r="AY18" s="8"/>
-      <c r="AZ18" s="8"/>
-      <c r="BA18" s="8"/>
-      <c r="BB18" s="8"/>
-      <c r="BC18" s="8"/>
-      <c r="BD18" s="8"/>
-      <c r="BE18" s="8"/>
-      <c r="BF18" s="8"/>
-      <c r="BG18" s="8"/>
-      <c r="BH18" s="8"/>
-      <c r="BI18" s="8"/>
-      <c r="BJ18" s="8"/>
-      <c r="BK18" s="8"/>
-      <c r="BL18" s="8"/>
-      <c r="BM18" s="8"/>
-      <c r="BN18" s="8"/>
-      <c r="BO18" s="8"/>
-      <c r="BP18" s="8"/>
-      <c r="BQ18" s="8"/>
-      <c r="BR18" s="8"/>
-      <c r="BS18" s="8"/>
-      <c r="BT18" s="51"/>
-      <c r="XEH18" s="22"/>
-      <c r="XEI18" s="22"/>
-      <c r="XEJ18" s="22"/>
-      <c r="XEK18" s="22"/>
-      <c r="XEL18" s="22"/>
-      <c r="XEM18" s="22"/>
-      <c r="XEN18" s="22"/>
-      <c r="XEO18" s="22"/>
-      <c r="XEP18" s="22"/>
-      <c r="XEQ18" s="22"/>
-      <c r="XER18"/>
-      <c r="XES18"/>
-      <c r="XET18"/>
-      <c r="XEU18"/>
-      <c r="XEV18"/>
-      <c r="XEW18"/>
-      <c r="XEX18"/>
-      <c r="XEY18"/>
-      <c r="XEZ18"/>
-      <c r="XFA18"/>
-    </row>
-    <row r="19" spans="1:16381">
-      <c r="A19" s="7">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="7">
-        <v>4</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="19"/>
-      <c r="AJ19" s="19"/>
-      <c r="AK19" s="19"/>
-      <c r="AL19" s="19"/>
-      <c r="AM19" s="19"/>
-      <c r="AN19" s="19"/>
-      <c r="AO19" s="19"/>
-      <c r="AP19" s="19"/>
-      <c r="AQ19" s="19"/>
-      <c r="AR19" s="8"/>
-      <c r="AS19" s="8"/>
-      <c r="AT19" s="8"/>
-      <c r="AU19" s="8"/>
-      <c r="AV19" s="8"/>
-      <c r="AW19" s="8"/>
-      <c r="AX19" s="8"/>
-      <c r="AY19" s="8"/>
-      <c r="AZ19" s="8"/>
-      <c r="BA19" s="8"/>
-      <c r="BB19" s="8"/>
-      <c r="BC19" s="8"/>
-      <c r="BD19" s="8"/>
-      <c r="BE19" s="8"/>
-      <c r="BF19" s="8"/>
-      <c r="BG19" s="8"/>
-      <c r="BH19" s="8"/>
-      <c r="BI19" s="8"/>
-      <c r="BJ19" s="8"/>
-      <c r="BK19" s="8"/>
-      <c r="BL19" s="8"/>
-      <c r="BM19" s="8"/>
-      <c r="BN19" s="8"/>
-      <c r="BO19" s="8"/>
-      <c r="BP19" s="8"/>
-      <c r="BQ19" s="8"/>
-      <c r="BR19" s="8"/>
-      <c r="BS19" s="8"/>
-      <c r="BT19" s="51"/>
-      <c r="XEH19" s="22"/>
-      <c r="XEI19" s="22"/>
-      <c r="XEJ19" s="22"/>
-      <c r="XEK19" s="22"/>
-      <c r="XEL19" s="22"/>
-      <c r="XEM19" s="22"/>
-      <c r="XEN19" s="22"/>
-      <c r="XEO19" s="22"/>
-      <c r="XEP19" s="22"/>
-      <c r="XEQ19" s="22"/>
-      <c r="XER19"/>
-      <c r="XES19"/>
-      <c r="XET19"/>
-      <c r="XEU19"/>
-      <c r="XEV19"/>
-      <c r="XEW19"/>
-      <c r="XEX19"/>
-      <c r="XEY19"/>
-      <c r="XEZ19"/>
-      <c r="XFA19"/>
-    </row>
-    <row r="20" spans="1:16381">
-      <c r="A20" s="7">
-        <v>2014</v>
-      </c>
-      <c r="B20" s="7">
-        <v>5</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="19"/>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="19"/>
-      <c r="AN20" s="19"/>
-      <c r="AO20" s="19"/>
-      <c r="AP20" s="19"/>
-      <c r="AQ20" s="19"/>
-      <c r="AR20" s="8"/>
-      <c r="AS20" s="8"/>
-      <c r="AT20" s="8"/>
-      <c r="AU20" s="8"/>
-      <c r="AV20" s="8"/>
-      <c r="AW20" s="8"/>
-      <c r="AX20" s="8"/>
-      <c r="AY20" s="8"/>
-      <c r="AZ20" s="8"/>
-      <c r="BA20" s="8"/>
-      <c r="BB20" s="8"/>
-      <c r="BC20" s="8"/>
-      <c r="BD20" s="8"/>
-      <c r="BE20" s="8"/>
-      <c r="BF20" s="8"/>
-      <c r="BG20" s="8"/>
-      <c r="BH20" s="8"/>
-      <c r="BI20" s="8"/>
-      <c r="BJ20" s="8"/>
-      <c r="BK20" s="8"/>
-      <c r="BL20" s="8"/>
-      <c r="BM20" s="8"/>
-      <c r="BN20" s="8"/>
-      <c r="BO20" s="8"/>
-      <c r="BP20" s="8"/>
-      <c r="BQ20" s="8"/>
-      <c r="BR20" s="8"/>
-      <c r="BS20" s="8"/>
-      <c r="BT20" s="51"/>
-      <c r="XEH20" s="22"/>
-      <c r="XEI20" s="22"/>
-      <c r="XEJ20" s="22"/>
-      <c r="XEK20" s="22"/>
-      <c r="XEL20" s="22"/>
-      <c r="XEM20" s="22"/>
-      <c r="XEN20" s="22"/>
-      <c r="XEO20" s="22"/>
-      <c r="XEP20" s="22"/>
-      <c r="XEQ20" s="22"/>
-      <c r="XER20"/>
-      <c r="XES20"/>
-      <c r="XET20"/>
-      <c r="XEU20"/>
-      <c r="XEV20"/>
-      <c r="XEW20"/>
-      <c r="XEX20"/>
-      <c r="XEY20"/>
-      <c r="XEZ20"/>
-      <c r="XFA20"/>
-    </row>
-    <row r="21" spans="1:16381">
-      <c r="A21" s="7">
-        <v>2013</v>
-      </c>
-      <c r="B21" s="7">
-        <v>6</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="19"/>
-      <c r="AF21" s="19"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="19"/>
-      <c r="AJ21" s="19"/>
-      <c r="AK21" s="19"/>
-      <c r="AL21" s="19"/>
-      <c r="AM21" s="19"/>
-      <c r="AN21" s="19"/>
-      <c r="AO21" s="19"/>
-      <c r="AP21" s="19"/>
-      <c r="AQ21" s="19"/>
-      <c r="AR21" s="8"/>
-      <c r="AS21" s="8"/>
-      <c r="AT21" s="8"/>
-      <c r="AU21" s="8"/>
-      <c r="AV21" s="8"/>
-      <c r="AW21" s="8"/>
-      <c r="AX21" s="8"/>
-      <c r="AY21" s="8"/>
-      <c r="AZ21" s="8"/>
-      <c r="BA21" s="8"/>
-      <c r="BB21" s="8"/>
-      <c r="BC21" s="8"/>
-      <c r="BD21" s="8"/>
-      <c r="BE21" s="8"/>
-      <c r="BF21" s="8"/>
-      <c r="BG21" s="8"/>
-      <c r="BH21" s="8"/>
-      <c r="BI21" s="8"/>
-      <c r="BJ21" s="8"/>
-      <c r="BK21" s="8"/>
-      <c r="BL21" s="8"/>
-      <c r="BM21" s="8"/>
-      <c r="BN21" s="8"/>
-      <c r="BO21" s="8"/>
-      <c r="BP21" s="8"/>
-      <c r="BQ21" s="8"/>
-      <c r="BR21" s="8"/>
-      <c r="BS21" s="8"/>
-      <c r="BT21" s="51"/>
-      <c r="XEH21" s="22"/>
-      <c r="XEI21" s="22"/>
-      <c r="XEJ21" s="22"/>
-      <c r="XEK21" s="22"/>
-      <c r="XEL21" s="22"/>
-      <c r="XEM21" s="22"/>
-      <c r="XEN21" s="22"/>
-      <c r="XEO21" s="22"/>
-      <c r="XEP21" s="22"/>
-      <c r="XEQ21" s="22"/>
-      <c r="XER21"/>
-      <c r="XES21"/>
-      <c r="XET21"/>
-      <c r="XEU21"/>
-      <c r="XEV21"/>
-      <c r="XEW21"/>
-      <c r="XEX21"/>
-      <c r="XEY21"/>
-      <c r="XEZ21"/>
-      <c r="XFA21"/>
-    </row>
-    <row r="22" spans="1:16381">
-      <c r="A22" s="7">
-        <v>2012</v>
-      </c>
-      <c r="B22" s="7">
-        <v>7</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="19"/>
-      <c r="AF22" s="19"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="19"/>
-      <c r="AJ22" s="19"/>
-      <c r="AK22" s="19"/>
-      <c r="AL22" s="19"/>
-      <c r="AM22" s="19"/>
-      <c r="AN22" s="19"/>
-      <c r="AO22" s="19"/>
-      <c r="AP22" s="19"/>
-      <c r="AQ22" s="19"/>
-      <c r="AR22" s="8"/>
-      <c r="AS22" s="8"/>
-      <c r="AT22" s="8"/>
-      <c r="AU22" s="8"/>
-      <c r="AV22" s="8"/>
-      <c r="AW22" s="8"/>
-      <c r="AX22" s="8"/>
-      <c r="AY22" s="8"/>
-      <c r="AZ22" s="8"/>
-      <c r="BA22" s="8"/>
-      <c r="BB22" s="8"/>
-      <c r="BC22" s="8"/>
-      <c r="BD22" s="8"/>
-      <c r="BE22" s="8"/>
-      <c r="BF22" s="8"/>
-      <c r="BG22" s="8"/>
-      <c r="BH22" s="8"/>
-      <c r="BI22" s="8"/>
-      <c r="BJ22" s="8"/>
-      <c r="BK22" s="8"/>
-      <c r="BL22" s="8"/>
-      <c r="BM22" s="8"/>
-      <c r="BN22" s="8"/>
-      <c r="BO22" s="8"/>
-      <c r="BP22" s="8"/>
-      <c r="BQ22" s="8"/>
-      <c r="BR22" s="8"/>
-      <c r="BS22" s="8"/>
-      <c r="BT22" s="51"/>
-      <c r="XEH22" s="22"/>
-      <c r="XEI22" s="22"/>
-      <c r="XEJ22" s="22"/>
-      <c r="XEK22" s="22"/>
-      <c r="XEL22" s="22"/>
-      <c r="XEM22" s="22"/>
-      <c r="XEN22" s="22"/>
-      <c r="XEO22" s="22"/>
-      <c r="XEP22" s="22"/>
-      <c r="XEQ22" s="22"/>
-      <c r="XER22"/>
-      <c r="XES22"/>
-      <c r="XET22"/>
-      <c r="XEU22"/>
-      <c r="XEV22"/>
-      <c r="XEW22"/>
-      <c r="XEX22"/>
-      <c r="XEY22"/>
-      <c r="XEZ22"/>
-      <c r="XFA22"/>
-    </row>
-    <row r="23" spans="1:16381">
-      <c r="A23" s="7">
-        <v>2011</v>
-      </c>
-      <c r="B23" s="7">
-        <v>8</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="19"/>
-      <c r="AD23" s="19"/>
-      <c r="AE23" s="19"/>
-      <c r="AF23" s="19"/>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="19"/>
-      <c r="AJ23" s="19"/>
-      <c r="AK23" s="19"/>
-      <c r="AL23" s="19"/>
-      <c r="AM23" s="19"/>
-      <c r="AN23" s="19"/>
-      <c r="AO23" s="19"/>
-      <c r="AP23" s="19"/>
-      <c r="AQ23" s="19"/>
-      <c r="AR23" s="8"/>
-      <c r="AS23" s="8"/>
-      <c r="AT23" s="8"/>
-      <c r="AU23" s="8"/>
-      <c r="AV23" s="8"/>
-      <c r="AW23" s="8"/>
-      <c r="AX23" s="8"/>
-      <c r="AY23" s="8"/>
-      <c r="AZ23" s="8"/>
-      <c r="BA23" s="8"/>
-      <c r="BB23" s="8"/>
-      <c r="BC23" s="8"/>
-      <c r="BD23" s="8"/>
-      <c r="BE23" s="8"/>
-      <c r="BF23" s="8"/>
-      <c r="BG23" s="8"/>
-      <c r="BH23" s="8"/>
-      <c r="BI23" s="51"/>
-      <c r="BJ23" s="51"/>
-      <c r="BK23" s="51"/>
-      <c r="BL23" s="51"/>
-      <c r="BM23" s="51"/>
-      <c r="BN23" s="51"/>
-      <c r="BO23" s="51"/>
-      <c r="BP23" s="51"/>
-      <c r="BQ23" s="51"/>
-      <c r="BR23" s="51"/>
-      <c r="BS23" s="51"/>
-      <c r="BT23" s="51"/>
-      <c r="XEH23" s="22"/>
-      <c r="XEI23" s="22"/>
-      <c r="XEJ23" s="22"/>
-      <c r="XEK23" s="22"/>
-      <c r="XEL23" s="22"/>
-      <c r="XEM23" s="22"/>
-      <c r="XEN23" s="22"/>
-      <c r="XEO23" s="22"/>
-      <c r="XEP23" s="22"/>
-      <c r="XEQ23" s="22"/>
-      <c r="XER23"/>
-      <c r="XES23"/>
-      <c r="XET23"/>
-      <c r="XEU23"/>
-      <c r="XEV23"/>
-      <c r="XEW23"/>
-      <c r="XEX23"/>
-      <c r="XEY23"/>
-      <c r="XEZ23"/>
-      <c r="XFA23"/>
-    </row>
-    <row r="24" spans="1:16381">
-      <c r="A24" s="7">
-        <v>2010</v>
-      </c>
-      <c r="B24" s="7">
-        <v>9</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19"/>
-      <c r="AD24" s="19"/>
-      <c r="AE24" s="19"/>
-      <c r="AF24" s="19"/>
-      <c r="AG24" s="19"/>
-      <c r="AH24" s="19"/>
-      <c r="AI24" s="19"/>
-      <c r="AJ24" s="19"/>
-      <c r="AK24" s="19"/>
-      <c r="AL24" s="19"/>
-      <c r="AM24" s="19"/>
-      <c r="AN24" s="19"/>
-      <c r="AO24" s="19"/>
-      <c r="AP24" s="19"/>
-      <c r="AQ24" s="19"/>
-      <c r="AR24" s="8"/>
-      <c r="AS24" s="8"/>
-      <c r="AT24" s="8"/>
-      <c r="AU24" s="8"/>
-      <c r="AV24" s="8"/>
-      <c r="AW24" s="8"/>
-      <c r="AX24" s="8"/>
-      <c r="AY24" s="8"/>
-      <c r="AZ24" s="8"/>
-      <c r="BA24" s="8"/>
-      <c r="BB24" s="8"/>
-      <c r="BC24" s="8"/>
-      <c r="BD24" s="8"/>
-      <c r="BE24" s="8"/>
-      <c r="BF24" s="8"/>
-      <c r="BG24" s="8"/>
-      <c r="BH24" s="8"/>
-      <c r="BI24" s="51"/>
-      <c r="BJ24" s="51"/>
-      <c r="BK24" s="51"/>
-      <c r="BL24" s="51"/>
-      <c r="BM24" s="51"/>
-      <c r="BN24" s="51"/>
-      <c r="BO24" s="51"/>
-      <c r="BP24" s="51"/>
-      <c r="BQ24" s="51"/>
-      <c r="BR24" s="51"/>
-      <c r="BS24" s="51"/>
-      <c r="BT24" s="51"/>
-      <c r="XEH24" s="22"/>
-      <c r="XEI24" s="22"/>
-      <c r="XEJ24" s="22"/>
-      <c r="XEK24" s="22"/>
-      <c r="XEL24" s="22"/>
-      <c r="XEM24" s="22"/>
-      <c r="XEN24" s="22"/>
-      <c r="XEO24" s="22"/>
-      <c r="XEP24" s="22"/>
-      <c r="XEQ24" s="22"/>
-      <c r="XER24"/>
-      <c r="XES24"/>
-      <c r="XET24"/>
-      <c r="XEU24"/>
-      <c r="XEV24"/>
-      <c r="XEW24"/>
-      <c r="XEX24"/>
-      <c r="XEY24"/>
-      <c r="XEZ24"/>
-      <c r="XFA24"/>
-    </row>
-    <row r="25" spans="1:16381">
-      <c r="A25" s="7">
-        <v>2009</v>
-      </c>
-      <c r="B25" s="7">
-        <v>10</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="19"/>
-      <c r="AJ25" s="19"/>
-      <c r="AK25" s="19"/>
-      <c r="AL25" s="19"/>
-      <c r="AM25" s="19"/>
-      <c r="AN25" s="19"/>
-      <c r="AO25" s="19"/>
-      <c r="AP25" s="19"/>
-      <c r="AQ25" s="19"/>
-      <c r="AR25" s="8"/>
-      <c r="AS25" s="8"/>
-      <c r="AT25" s="8"/>
-      <c r="AU25" s="8"/>
-      <c r="AV25" s="8"/>
-      <c r="AW25" s="8"/>
-      <c r="AX25" s="8"/>
-      <c r="AY25" s="8"/>
-      <c r="AZ25" s="8"/>
-      <c r="BA25" s="8"/>
-      <c r="BB25" s="8"/>
-      <c r="BC25" s="8"/>
-      <c r="BD25" s="8"/>
-      <c r="BE25" s="8"/>
-      <c r="BF25" s="8"/>
-      <c r="BG25" s="8"/>
-      <c r="BH25" s="8"/>
-      <c r="BI25" s="51"/>
-      <c r="BJ25" s="51"/>
-      <c r="BK25" s="51"/>
-      <c r="BL25" s="51"/>
-      <c r="BM25" s="51"/>
-      <c r="BN25" s="51"/>
-      <c r="BO25" s="51"/>
-      <c r="BP25" s="51"/>
-      <c r="BQ25" s="51"/>
-      <c r="BR25" s="51"/>
-      <c r="BS25" s="51"/>
-      <c r="BT25" s="51"/>
-      <c r="XEH25" s="22"/>
-      <c r="XEI25" s="22"/>
-      <c r="XEJ25" s="22"/>
-      <c r="XEK25" s="22"/>
-      <c r="XEL25" s="22"/>
-      <c r="XEM25" s="22"/>
-      <c r="XEN25" s="22"/>
-      <c r="XEO25" s="22"/>
-      <c r="XEP25" s="22"/>
-      <c r="XEQ25" s="22"/>
-      <c r="XER25"/>
-      <c r="XES25"/>
-      <c r="XET25"/>
-      <c r="XEU25"/>
-      <c r="XEV25"/>
-      <c r="XEW25"/>
-      <c r="XEX25"/>
-      <c r="XEY25"/>
-      <c r="XEZ25"/>
-      <c r="XFA25"/>
     </row>
   </sheetData>
   <mergeCells count="88">
@@ -10753,7 +9991,7 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.81666666666667" defaultRowHeight="12" customHeight="1" outlineLevelRow="4"/>
@@ -10768,7 +10006,8 @@
     <col min="8" max="8" width="4.725" style="3" customWidth="1"/>
     <col min="9" max="9" width="6.45" style="3" customWidth="1"/>
     <col min="10" max="21" width="3.63333333333333" style="3" customWidth="1"/>
-    <col min="22" max="26" width="2.63333333333333" style="3" customWidth="1"/>
+    <col min="22" max="22" width="7.375" style="3" customWidth="1"/>
+    <col min="23" max="26" width="2.63333333333333" style="3" customWidth="1"/>
     <col min="27" max="27" width="3.63333333333333" style="3" customWidth="1"/>
     <col min="28" max="28" width="2.18333333333333" style="2" customWidth="1"/>
     <col min="29" max="29" width="12.2666666666667" style="3" customWidth="1"/>
@@ -10785,7 +10024,7 @@
   <sheetData>
     <row r="1" ht="19" customHeight="1" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10816,34 +10055,34 @@
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:27">
       <c r="A3" s="10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -10856,13 +10095,9 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
-      <c r="V3" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
+      <c r="V3" s="12" t="s">
+        <v>318</v>
+      </c>
       <c r="AA3" s="20"/>
     </row>
     <row r="4" ht="58.5" customHeight="1" spans="1:27">
@@ -10876,133 +10111,124 @@
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
       <c r="J4" s="6" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="U4" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>308</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="V4" s="16"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
       <c r="AA4" s="21"/>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:26">
       <c r="A5" s="7" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
+        <v>333</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A1:Z1"/>
     <mergeCell ref="J3:U3"/>
-    <mergeCell ref="V3:Z3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -11012,6 +10238,7 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="V3:V4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.236220472440945" right="0.236220472440945" top="0.748031496062992" bottom="0.748031496062992" header="0.31496062992126" footer="0.31496062992126"/>
@@ -11027,8 +10254,8 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -11044,7 +10271,7 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11070,34 +10297,34 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11114,34 +10341,34 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/excel-model/单位问卷—机关—打印版.xlsx
+++ b/src/resources/excel-model/单位问卷—机关—打印版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="单位情况" sheetId="7" r:id="rId1"/>
@@ -93,6 +93,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>2018</t>
     </r>
     <r>
@@ -111,6 +118,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>2018</t>
     </r>
     <r>
@@ -1990,9 +2004,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -2127,6 +2141,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -2134,9 +2156,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2150,34 +2180,39 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2197,51 +2232,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2250,7 +2240,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2261,6 +2251,30 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2287,25 +2301,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2317,43 +2331,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2371,13 +2373,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2389,55 +2445,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2449,25 +2463,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2571,45 +2585,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2626,10 +2601,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2653,6 +2626,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2667,6 +2666,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2675,149 +2689,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3048,9 +3062,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3376,8 +3387,8 @@
   <sheetPr/>
   <dimension ref="A3:L49"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5"/>
@@ -3592,7 +3603,7 @@
       <c r="H17" s="72"/>
       <c r="I17" s="74"/>
       <c r="J17" s="74"/>
-      <c r="K17" s="77" t="s">
+      <c r="K17" s="75" t="s">
         <v>8</v>
       </c>
       <c r="L17" s="76" t="s">
@@ -3610,7 +3621,7 @@
       <c r="H18" s="72"/>
       <c r="I18" s="74"/>
       <c r="J18" s="74"/>
-      <c r="K18" s="77" t="s">
+      <c r="K18" s="75" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="76" t="s">
@@ -3628,7 +3639,7 @@
       <c r="H19" s="72"/>
       <c r="I19" s="74"/>
       <c r="J19" s="74"/>
-      <c r="K19" s="78" t="s">
+      <c r="K19" s="77" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="76" t="s">
@@ -3646,7 +3657,7 @@
       <c r="H20" s="72"/>
       <c r="I20" s="74"/>
       <c r="J20" s="74"/>
-      <c r="K20" s="78" t="s">
+      <c r="K20" s="77" t="s">
         <v>14</v>
       </c>
       <c r="L20" s="76" t="s">
@@ -4051,7 +4062,7 @@
   <dimension ref="A1:DH16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BH21" sqref="BH21"/>
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.63333333333333" defaultRowHeight="15"/>
@@ -5932,7 +5943,7 @@
   <dimension ref="A1:XFC16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.0916666666667" defaultRowHeight="15"/>
@@ -7845,7 +7856,7 @@
   <dimension ref="A1:XFC16"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="AL22" sqref="AL22"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.0916666666667" defaultRowHeight="13.5"/>
@@ -9991,7 +10002,7 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.81666666666667" defaultRowHeight="12" customHeight="1" outlineLevelRow="4"/>
@@ -10147,10 +10158,6 @@
         <v>269</v>
       </c>
       <c r="V4" s="16"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
       <c r="AA4" s="21"/>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:26">
@@ -10220,7 +10227,6 @@
       <c r="V5" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="W5" s="3"/>
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5"/>
@@ -10254,8 +10260,8 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>

--- a/src/resources/excel-model/单位问卷—机关—打印版.xlsx
+++ b/src/resources/excel-model/单位问卷—机关—打印版.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="338">
   <si>
     <t>《黑龙江省人才普查和流失情况专项工作》单位人才统计平台操作说明</t>
   </si>
@@ -90,56 +90,6 @@
   </si>
   <si>
     <t>&lt;%=_data_[0][2].value%&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2018</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年销售收入总额（万元）</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;%=_data_[0][10].value%&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2018</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年研发经费支出额（万元）</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;%=_data_[0][11].value%&gt;</t>
   </si>
   <si>
     <r>
@@ -2003,10 +1953,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -2135,7 +2085,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2150,9 +2129,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2172,18 +2182,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2196,51 +2199,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2271,14 +2229,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -2301,7 +2251,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2313,37 +2299,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2361,103 +2413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2469,19 +2431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2584,6 +2534,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2602,17 +2561,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2637,21 +2617,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2666,21 +2631,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2689,145 +2639,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3385,10 +3335,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:L49"/>
+  <dimension ref="A3:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5"/>
@@ -3592,7 +3542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" s="70" customFormat="1" ht="17" customHeight="1" spans="1:12">
+    <row r="17" s="70" customFormat="1" ht="15.75" spans="1:12">
       <c r="A17" s="72"/>
       <c r="B17" s="72"/>
       <c r="C17" s="72"/>
@@ -3603,14 +3553,14 @@
       <c r="H17" s="72"/>
       <c r="I17" s="74"/>
       <c r="J17" s="74"/>
-      <c r="K17" s="75" t="s">
+      <c r="K17" s="77" t="s">
         <v>8</v>
       </c>
       <c r="L17" s="76" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" s="70" customFormat="1" ht="17" customHeight="1" spans="1:12">
+    <row r="18" s="70" customFormat="1" ht="15.75" spans="1:12">
       <c r="A18" s="72"/>
       <c r="B18" s="72"/>
       <c r="C18" s="72"/>
@@ -3621,7 +3571,7 @@
       <c r="H18" s="72"/>
       <c r="I18" s="74"/>
       <c r="J18" s="74"/>
-      <c r="K18" s="75" t="s">
+      <c r="K18" s="77" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="76" t="s">
@@ -3639,7 +3589,7 @@
       <c r="H19" s="72"/>
       <c r="I19" s="74"/>
       <c r="J19" s="74"/>
-      <c r="K19" s="77" t="s">
+      <c r="K19" s="75" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="76" t="s">
@@ -3657,7 +3607,7 @@
       <c r="H20" s="72"/>
       <c r="I20" s="74"/>
       <c r="J20" s="74"/>
-      <c r="K20" s="77" t="s">
+      <c r="K20" s="75" t="s">
         <v>14</v>
       </c>
       <c r="L20" s="76" t="s">
@@ -3718,7 +3668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" s="70" customFormat="1" ht="15.75" spans="1:12">
+    <row r="24" s="70" customFormat="1" ht="14.25" spans="1:10">
       <c r="A24" s="72"/>
       <c r="B24" s="72"/>
       <c r="C24" s="72"/>
@@ -3729,14 +3679,8 @@
       <c r="H24" s="72"/>
       <c r="I24" s="74"/>
       <c r="J24" s="74"/>
-      <c r="K24" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="76" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="25" s="70" customFormat="1" ht="15.75" spans="1:12">
+    <row r="25" s="70" customFormat="1" ht="14.25" spans="1:10">
       <c r="A25" s="72"/>
       <c r="B25" s="72"/>
       <c r="C25" s="72"/>
@@ -3747,14 +3691,8 @@
       <c r="H25" s="72"/>
       <c r="I25" s="74"/>
       <c r="J25" s="74"/>
-      <c r="K25" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" s="76" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="26" s="70" customFormat="1" ht="14.25" spans="1:10">
+    <row r="26" ht="14.25" spans="1:10">
       <c r="A26" s="72"/>
       <c r="B26" s="72"/>
       <c r="C26" s="72"/>
@@ -3766,7 +3704,7 @@
       <c r="I26" s="74"/>
       <c r="J26" s="74"/>
     </row>
-    <row r="27" s="70" customFormat="1" ht="14.25" spans="1:10">
+    <row r="27" ht="14.25" spans="1:10">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -4018,34 +3956,10 @@
       <c r="I47" s="74"/>
       <c r="J47" s="74"/>
     </row>
-    <row r="48" ht="14.25" spans="1:10">
-      <c r="A48" s="72"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="74"/>
-      <c r="J48" s="74"/>
-    </row>
-    <row r="49" ht="14.25" spans="1:10">
-      <c r="A49" s="72"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="72"/>
-      <c r="I49" s="74"/>
-      <c r="J49" s="74"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A7:H49"/>
+    <mergeCell ref="A7:H47"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.118110236220472" bottom="0.118110236220472" header="0" footer="0"/>
@@ -4062,7 +3976,7 @@
   <dimension ref="A1:DH16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+      <selection activeCell="CA16" sqref="CA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.63333333333333" defaultRowHeight="15"/>
@@ -4077,7 +3991,7 @@
   <sheetData>
     <row r="1" s="59" customFormat="1" ht="21" spans="1:110">
       <c r="A1" s="56" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B1" s="56"/>
       <c r="C1" s="56"/>
@@ -4191,34 +4105,34 @@
     </row>
     <row r="3" s="60" customFormat="1" ht="14" customHeight="1" spans="1:66">
       <c r="A3" s="62" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E3" s="57"/>
       <c r="F3" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="58" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="45"/>
       <c r="R3" s="45"/>
@@ -4288,7 +4202,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="43" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="45"/>
       <c r="R4" s="45"/>
@@ -4296,7 +4210,7 @@
       <c r="T4" s="45"/>
       <c r="U4" s="46"/>
       <c r="V4" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
@@ -4348,117 +4262,117 @@
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="L5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="O5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="P5" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="Q5" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="R5" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="S5" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="T5" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="44" t="s">
+      <c r="U5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="44" t="s">
+      <c r="V5" s="58" t="s">
         <v>50</v>
-      </c>
-      <c r="S5" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="T5" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="V5" s="58" t="s">
-        <v>54</v>
       </c>
       <c r="W5" s="45"/>
       <c r="X5" s="45"/>
       <c r="Y5" s="45"/>
       <c r="Z5" s="46"/>
       <c r="AA5" s="58" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AB5" s="45"/>
       <c r="AC5" s="45"/>
       <c r="AD5" s="45"/>
       <c r="AE5" s="46"/>
       <c r="AF5" s="58" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AG5" s="45"/>
       <c r="AH5" s="45"/>
       <c r="AI5" s="45"/>
       <c r="AJ5" s="46"/>
       <c r="AK5" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AL5" s="45"/>
       <c r="AM5" s="45"/>
       <c r="AN5" s="45"/>
       <c r="AO5" s="46"/>
       <c r="AP5" s="58" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AQ5" s="45"/>
       <c r="AR5" s="45"/>
       <c r="AS5" s="45"/>
       <c r="AT5" s="46"/>
       <c r="AU5" s="58" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AV5" s="45"/>
       <c r="AW5" s="45"/>
       <c r="AX5" s="45"/>
       <c r="AY5" s="46"/>
       <c r="AZ5" s="58" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="BA5" s="45"/>
       <c r="BB5" s="45"/>
       <c r="BC5" s="45"/>
       <c r="BD5" s="46"/>
       <c r="BE5" s="58" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="BF5" s="45"/>
       <c r="BG5" s="45"/>
       <c r="BH5" s="45"/>
       <c r="BI5" s="46"/>
       <c r="BJ5" s="58" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="BK5" s="45"/>
       <c r="BL5" s="45"/>
@@ -4488,147 +4402,147 @@
       <c r="T6" s="32"/>
       <c r="U6" s="32"/>
       <c r="V6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="W6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="AA6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AB6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="AF6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AG6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="AK6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AL6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO6" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="AP6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AQ6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="AU6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AV6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AX6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY6" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="AZ6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BA6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="BB6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="BC6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD6" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="BE6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BF6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="BH6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="BI6" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="BJ6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BN6" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="BK6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="BL6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="BM6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN6" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" s="60" customFormat="1" ht="12" customHeight="1" spans="1:66">
       <c r="A7" s="64" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C7" s="32">
         <v>1</v>
@@ -4825,215 +4739,215 @@
     </row>
     <row r="8" ht="63" spans="1:112">
       <c r="A8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="F8" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="G8" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="H8" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="I8" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="J8" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="K8" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="L8" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="M8" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="N8" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="O8" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="P8" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="Q8" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="N8" s="35" t="s">
+      <c r="R8" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="O8" s="35" t="s">
+      <c r="S8" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="P8" s="35" t="s">
+      <c r="T8" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="Q8" s="35" t="s">
+      <c r="U8" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="R8" s="35" t="s">
+      <c r="V8" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="S8" s="35" t="s">
+      <c r="W8" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="T8" s="35" t="s">
+      <c r="X8" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="U8" s="35" t="s">
+      <c r="Y8" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="V8" s="35" t="s">
+      <c r="Z8" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="W8" s="35" t="s">
+      <c r="AA8" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="X8" s="35" t="s">
+      <c r="AB8" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="Y8" s="35" t="s">
+      <c r="AC8" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="Z8" s="35" t="s">
+      <c r="AD8" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="AA8" s="35" t="s">
+      <c r="AE8" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="AB8" s="35" t="s">
+      <c r="AF8" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="AC8" s="32" t="s">
+      <c r="AG8" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="AD8" s="32" t="s">
+      <c r="AH8" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="AE8" s="32" t="s">
+      <c r="AI8" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="AF8" s="32" t="s">
+      <c r="AJ8" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="AG8" s="32" t="s">
+      <c r="AK8" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="AH8" s="32" t="s">
+      <c r="AL8" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="AI8" s="32" t="s">
+      <c r="AM8" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="AJ8" s="32" t="s">
+      <c r="AN8" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="AK8" s="32" t="s">
+      <c r="AO8" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="AL8" s="32" t="s">
+      <c r="AP8" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="AM8" s="32" t="s">
+      <c r="AQ8" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="AN8" s="32" t="s">
+      <c r="AR8" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="AO8" s="32" t="s">
+      <c r="AS8" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="AP8" s="32" t="s">
+      <c r="AT8" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="AQ8" s="32" t="s">
+      <c r="AU8" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="AR8" s="32" t="s">
+      <c r="AV8" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="AS8" s="32" t="s">
+      <c r="AW8" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="AT8" s="32" t="s">
+      <c r="AX8" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="AU8" s="32" t="s">
+      <c r="AY8" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="AV8" s="32" t="s">
+      <c r="AZ8" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="AW8" s="32" t="s">
+      <c r="BA8" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="AX8" s="32" t="s">
+      <c r="BB8" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="AY8" s="32" t="s">
+      <c r="BC8" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="AZ8" s="32" t="s">
+      <c r="BD8" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="BA8" s="32" t="s">
+      <c r="BE8" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="BB8" s="32" t="s">
+      <c r="BF8" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="BC8" s="32" t="s">
+      <c r="BG8" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="BD8" s="32" t="s">
+      <c r="BH8" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="BE8" s="32" t="s">
+      <c r="BI8" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="BF8" s="32" t="s">
+      <c r="BJ8" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="BG8" s="32" t="s">
+      <c r="BK8" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="BH8" s="32" t="s">
+      <c r="BL8" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="BI8" s="32" t="s">
+      <c r="BM8" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="BJ8" s="32" t="s">
+      <c r="BN8" s="32" t="s">
         <v>131</v>
-      </c>
-      <c r="BK8" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="BL8" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="BM8" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="BN8" s="32" t="s">
-        <v>135</v>
       </c>
       <c r="DG8" s="61"/>
       <c r="DH8" s="61"/>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:66">
       <c r="A11" s="62" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
@@ -5088,7 +5002,7 @@
       <c r="BB11" s="45"/>
       <c r="BC11" s="46"/>
       <c r="BD11" s="50" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="BE11" s="7"/>
       <c r="BF11" s="7"/>
@@ -5105,7 +5019,7 @@
       <c r="A12" s="63"/>
       <c r="B12" s="14"/>
       <c r="C12" s="58" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45"/>
@@ -5147,7 +5061,7 @@
       <c r="AO12" s="45"/>
       <c r="AP12" s="46"/>
       <c r="AQ12" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AR12" s="4"/>
       <c r="AS12" s="4"/>
@@ -5155,17 +5069,17 @@
       <c r="AU12" s="4"/>
       <c r="AV12" s="4"/>
       <c r="AW12" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AX12" s="4"/>
       <c r="AY12" s="4"/>
       <c r="AZ12" s="4"/>
       <c r="BA12" s="4"/>
       <c r="BB12" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="BC12" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="BD12" s="7"/>
       <c r="BE12" s="7"/>
@@ -5183,125 +5097,125 @@
       <c r="A13" s="63"/>
       <c r="B13" s="14"/>
       <c r="C13" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR13" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS13" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT13" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU13" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="AR13" s="10" t="s">
+      <c r="AV13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW13" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="AS13" s="10" t="s">
+      <c r="AX13" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="AT13" s="10" t="s">
+      <c r="AY13" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="AU13" s="10" t="s">
+      <c r="AZ13" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="AV13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW13" s="10" t="s">
+      <c r="BA13" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="AX13" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AY13" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="AZ13" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="BA13" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="BB13" s="14"/>
       <c r="BC13" s="14"/>
       <c r="BD13" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="BE13" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF13" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG13" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BH13" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="BE13" s="4" t="s">
+      <c r="BI13" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="BF13" s="4" t="s">
+      <c r="BJ13" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="BG13" s="4" t="s">
+      <c r="BK13" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BH13" s="4" t="s">
+      <c r="BL13" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="BI13" s="4" t="s">
+      <c r="BM13" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="BJ13" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="BK13" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="BL13" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="BM13" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="BN13" s="68"/>
     </row>
@@ -5309,124 +5223,124 @@
       <c r="A14" s="64"/>
       <c r="B14" s="32"/>
       <c r="C14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="H14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="M14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="R14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="V14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="S14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="W14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="X14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA14" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="AB14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AC14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF14" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="AG14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AH14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK14" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="AL14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP14" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="AM14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP14" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="AQ14" s="32"/>
       <c r="AR14" s="32"/>
@@ -5455,10 +5369,10 @@
     </row>
     <row r="15" ht="13.5" spans="1:66">
       <c r="A15" s="64" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C15" s="32">
         <v>65</v>
@@ -5653,199 +5567,199 @@
     </row>
     <row r="16" ht="63" spans="1:66">
       <c r="A16" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C16" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="H16" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="I16" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="J16" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="K16" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="L16" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="M16" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="N16" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="O16" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="L16" s="35" t="s">
+      <c r="P16" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="M16" s="35" t="s">
+      <c r="Q16" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="N16" s="35" t="s">
+      <c r="R16" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="O16" s="35" t="s">
+      <c r="S16" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="P16" s="35" t="s">
+      <c r="T16" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="Q16" s="35" t="s">
+      <c r="U16" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="R16" s="35" t="s">
+      <c r="V16" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="S16" s="35" t="s">
+      <c r="W16" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="T16" s="35" t="s">
+      <c r="X16" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="U16" s="35" t="s">
+      <c r="Y16" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="V16" s="35" t="s">
+      <c r="Z16" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="W16" s="35" t="s">
+      <c r="AA16" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="X16" s="35" t="s">
+      <c r="AB16" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="Y16" s="35" t="s">
+      <c r="AC16" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="Z16" s="35" t="s">
+      <c r="AD16" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="AA16" s="35" t="s">
+      <c r="AE16" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="AB16" s="35" t="s">
+      <c r="AF16" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="AC16" s="35" t="s">
+      <c r="AG16" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="AD16" s="35" t="s">
+      <c r="AH16" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="AE16" s="35" t="s">
+      <c r="AI16" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="AF16" s="35" t="s">
+      <c r="AJ16" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="AG16" s="35" t="s">
+      <c r="AK16" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="AH16" s="35" t="s">
+      <c r="AL16" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="AI16" s="35" t="s">
+      <c r="AM16" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="AJ16" s="35" t="s">
+      <c r="AN16" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="AK16" s="35" t="s">
+      <c r="AO16" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="AL16" s="35" t="s">
+      <c r="AP16" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="AM16" s="35" t="s">
+      <c r="AQ16" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="AN16" s="35" t="s">
+      <c r="AR16" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="AO16" s="35" t="s">
+      <c r="AS16" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="AP16" s="35" t="s">
+      <c r="AT16" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="AQ16" s="35" t="s">
+      <c r="AU16" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="AR16" s="35" t="s">
+      <c r="AV16" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="AS16" s="35" t="s">
+      <c r="AW16" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="AT16" s="35" t="s">
+      <c r="AX16" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="AU16" s="35" t="s">
+      <c r="AY16" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="AV16" s="35" t="s">
+      <c r="AZ16" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="AW16" s="35" t="s">
+      <c r="BA16" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="AX16" s="35" t="s">
+      <c r="BB16" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="AY16" s="35" t="s">
+      <c r="BC16" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="AZ16" s="35" t="s">
+      <c r="BD16" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="BA16" s="35" t="s">
+      <c r="BE16" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="BB16" s="35" t="s">
+      <c r="BF16" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="BC16" s="35" t="s">
+      <c r="BG16" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="BD16" s="35" t="s">
+      <c r="BH16" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="BE16" s="35" t="s">
+      <c r="BI16" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="BF16" s="35" t="s">
+      <c r="BJ16" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="BG16" s="35" t="s">
+      <c r="BK16" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="BH16" s="35" t="s">
+      <c r="BL16" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="BI16" s="35" t="s">
+      <c r="BM16" s="35" t="s">
         <v>226</v>
-      </c>
-      <c r="BJ16" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="BK16" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="BL16" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="BM16" s="35" t="s">
-        <v>230</v>
       </c>
       <c r="BN16" s="69"/>
     </row>
@@ -5960,7 +5874,7 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:65">
       <c r="A1" s="55" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B1" s="56"/>
       <c r="C1" s="56"/>
@@ -6029,34 +5943,34 @@
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:16383">
       <c r="A3" s="37" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E3" s="57"/>
       <c r="F3" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="57" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L3" s="57"/>
       <c r="M3" s="57"/>
       <c r="N3" s="57"/>
       <c r="O3" s="57"/>
       <c r="P3" s="58" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="45"/>
       <c r="R3" s="45"/>
@@ -6130,7 +6044,7 @@
       <c r="N4" s="57"/>
       <c r="O4" s="57"/>
       <c r="P4" s="43" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="45"/>
       <c r="R4" s="45"/>
@@ -6138,7 +6052,7 @@
       <c r="T4" s="45"/>
       <c r="U4" s="46"/>
       <c r="V4" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
@@ -6194,117 +6108,117 @@
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
       <c r="D5" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="I5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="K5" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="L5" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="M5" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="N5" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="O5" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="P5" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="38" t="s">
+      <c r="Q5" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="38" t="s">
+      <c r="R5" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="38" t="s">
+      <c r="S5" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="T5" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="44" t="s">
+      <c r="U5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="44" t="s">
+      <c r="V5" s="58" t="s">
         <v>50</v>
-      </c>
-      <c r="S5" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="T5" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="V5" s="58" t="s">
-        <v>54</v>
       </c>
       <c r="W5" s="45"/>
       <c r="X5" s="45"/>
       <c r="Y5" s="45"/>
       <c r="Z5" s="46"/>
       <c r="AA5" s="58" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AB5" s="45"/>
       <c r="AC5" s="45"/>
       <c r="AD5" s="45"/>
       <c r="AE5" s="46"/>
       <c r="AF5" s="58" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AG5" s="45"/>
       <c r="AH5" s="45"/>
       <c r="AI5" s="45"/>
       <c r="AJ5" s="46"/>
       <c r="AK5" s="58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AL5" s="45"/>
       <c r="AM5" s="45"/>
       <c r="AN5" s="45"/>
       <c r="AO5" s="46"/>
       <c r="AP5" s="58" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AQ5" s="45"/>
       <c r="AR5" s="45"/>
       <c r="AS5" s="45"/>
       <c r="AT5" s="46"/>
       <c r="AU5" s="58" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AV5" s="45"/>
       <c r="AW5" s="45"/>
       <c r="AX5" s="45"/>
       <c r="AY5" s="46"/>
       <c r="AZ5" s="58" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="BA5" s="45"/>
       <c r="BB5" s="45"/>
       <c r="BC5" s="45"/>
       <c r="BD5" s="46"/>
       <c r="BE5" s="58" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="BF5" s="45"/>
       <c r="BG5" s="45"/>
       <c r="BH5" s="45"/>
       <c r="BI5" s="46"/>
       <c r="BJ5" s="58" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="BK5" s="45"/>
       <c r="BL5" s="45"/>
@@ -6338,139 +6252,139 @@
       <c r="T6" s="32"/>
       <c r="U6" s="32"/>
       <c r="V6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="W6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="AA6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AB6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="AF6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AG6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="AK6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AL6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO6" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="AP6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AQ6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="AU6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AV6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AX6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY6" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="AZ6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BA6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="BB6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="BC6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD6" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="BE6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BF6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="BH6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="BI6" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="BJ6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BN6" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="BK6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="BL6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="BM6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN6" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="XER6" s="54"/>
       <c r="XES6" s="54"/>
@@ -6479,10 +6393,10 @@
     </row>
     <row r="7" ht="12" customHeight="1" spans="1:16383">
       <c r="A7" s="33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C7" s="34">
         <v>1</v>
@@ -6683,202 +6597,202 @@
     </row>
     <row r="8" ht="63" spans="1:16383">
       <c r="A8" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="G8" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="H8" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="I8" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="J8" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="K8" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="L8" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="M8" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="N8" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="O8" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="P8" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="Q8" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="N8" s="35" t="s">
+      <c r="R8" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="O8" s="35" t="s">
+      <c r="S8" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="P8" s="35" t="s">
+      <c r="T8" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="Q8" s="35" t="s">
+      <c r="U8" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="R8" s="35" t="s">
+      <c r="V8" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="S8" s="35" t="s">
+      <c r="W8" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="T8" s="35" t="s">
+      <c r="X8" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="U8" s="35" t="s">
+      <c r="Y8" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="V8" s="35" t="s">
+      <c r="Z8" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="W8" s="35" t="s">
+      <c r="AA8" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="X8" s="35" t="s">
+      <c r="AB8" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="Y8" s="35" t="s">
+      <c r="AC8" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="Z8" s="35" t="s">
+      <c r="AD8" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="AA8" s="35" t="s">
+      <c r="AE8" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="AB8" s="35" t="s">
+      <c r="AF8" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="AC8" s="32" t="s">
+      <c r="AG8" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="AD8" s="32" t="s">
+      <c r="AH8" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="AE8" s="32" t="s">
+      <c r="AI8" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="AF8" s="32" t="s">
+      <c r="AJ8" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="AG8" s="32" t="s">
+      <c r="AK8" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="AH8" s="32" t="s">
+      <c r="AL8" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="AI8" s="32" t="s">
+      <c r="AM8" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="AJ8" s="32" t="s">
+      <c r="AN8" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="AK8" s="32" t="s">
+      <c r="AO8" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="AL8" s="32" t="s">
+      <c r="AP8" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="AM8" s="32" t="s">
+      <c r="AQ8" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="AN8" s="32" t="s">
+      <c r="AR8" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="AO8" s="32" t="s">
+      <c r="AS8" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="AP8" s="32" t="s">
+      <c r="AT8" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="AQ8" s="32" t="s">
+      <c r="AU8" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="AR8" s="32" t="s">
+      <c r="AV8" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="AS8" s="32" t="s">
+      <c r="AW8" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="AT8" s="32" t="s">
+      <c r="AX8" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="AU8" s="32" t="s">
+      <c r="AY8" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="AV8" s="32" t="s">
+      <c r="AZ8" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="AW8" s="32" t="s">
+      <c r="BA8" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="AX8" s="32" t="s">
+      <c r="BB8" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="AY8" s="32" t="s">
+      <c r="BC8" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="AZ8" s="32" t="s">
+      <c r="BD8" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="BA8" s="32" t="s">
+      <c r="BE8" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="BB8" s="32" t="s">
+      <c r="BF8" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="BC8" s="32" t="s">
+      <c r="BG8" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="BD8" s="32" t="s">
+      <c r="BH8" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="BE8" s="32" t="s">
+      <c r="BI8" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="BF8" s="32" t="s">
+      <c r="BJ8" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="BG8" s="32" t="s">
+      <c r="BK8" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="BH8" s="32" t="s">
+      <c r="BL8" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="BI8" s="32" t="s">
+      <c r="BM8" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="BJ8" s="32" t="s">
+      <c r="BN8" s="32" t="s">
         <v>131</v>
-      </c>
-      <c r="BK8" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="BL8" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="BM8" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="BN8" s="32" t="s">
-        <v>135</v>
       </c>
       <c r="XER8" s="54"/>
       <c r="XES8" s="54"/>
@@ -6887,13 +6801,13 @@
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:16381">
       <c r="A11" s="37" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
@@ -6948,7 +6862,7 @@
       <c r="BB11" s="45"/>
       <c r="BC11" s="46"/>
       <c r="BD11" s="50" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="BE11" s="7"/>
       <c r="BF11" s="7"/>
@@ -6974,7 +6888,7 @@
       <c r="A12" s="41"/>
       <c r="B12" s="42"/>
       <c r="C12" s="58" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45"/>
@@ -7016,7 +6930,7 @@
       <c r="AO12" s="45"/>
       <c r="AP12" s="46"/>
       <c r="AQ12" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AR12" s="4"/>
       <c r="AS12" s="4"/>
@@ -7024,17 +6938,17 @@
       <c r="AU12" s="4"/>
       <c r="AV12" s="4"/>
       <c r="AW12" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AX12" s="4"/>
       <c r="AY12" s="4"/>
       <c r="AZ12" s="4"/>
       <c r="BA12" s="4"/>
       <c r="BB12" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="BC12" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="BD12" s="7"/>
       <c r="BE12" s="7"/>
@@ -7061,125 +6975,125 @@
       <c r="A13" s="41"/>
       <c r="B13" s="42"/>
       <c r="C13" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR13" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS13" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT13" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU13" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="AR13" s="10" t="s">
+      <c r="AV13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW13" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="AS13" s="10" t="s">
+      <c r="AX13" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="AT13" s="10" t="s">
+      <c r="AY13" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="AU13" s="10" t="s">
+      <c r="AZ13" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="AV13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW13" s="10" t="s">
+      <c r="BA13" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="AX13" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AY13" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="AZ13" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="BA13" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="BB13" s="14"/>
       <c r="BC13" s="14"/>
       <c r="BD13" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="BE13" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF13" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG13" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="BH13" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="BE13" s="10" t="s">
+      <c r="BI13" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="BF13" s="10" t="s">
+      <c r="BJ13" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="BG13" s="10" t="s">
+      <c r="BK13" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="BH13" s="10" t="s">
+      <c r="BL13" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="BI13" s="10" t="s">
+      <c r="BM13" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="BJ13" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="BK13" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="BL13" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="BM13" s="10" t="s">
-        <v>167</v>
       </c>
       <c r="XEM13" s="52"/>
       <c r="XEN13" s="52"/>
@@ -7196,124 +7110,124 @@
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
       <c r="C14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="H14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="M14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="R14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="V14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="S14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="W14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="X14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA14" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="AB14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AC14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF14" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="AG14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AH14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK14" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="AL14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP14" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="AM14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP14" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="AQ14" s="32"/>
       <c r="AR14" s="32"/>
@@ -7351,10 +7265,10 @@
     </row>
     <row r="15" spans="1:16381">
       <c r="A15" s="33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C15" s="32">
         <v>65</v>
@@ -7558,199 +7472,199 @@
     </row>
     <row r="16" ht="63" spans="1:16381">
       <c r="A16" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C16" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="H16" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="I16" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="J16" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="K16" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="L16" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="M16" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="N16" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="O16" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="L16" s="35" t="s">
+      <c r="P16" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="M16" s="35" t="s">
+      <c r="Q16" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="N16" s="35" t="s">
+      <c r="R16" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="O16" s="35" t="s">
+      <c r="S16" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="P16" s="35" t="s">
+      <c r="T16" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="Q16" s="35" t="s">
+      <c r="U16" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="R16" s="35" t="s">
+      <c r="V16" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="S16" s="35" t="s">
+      <c r="W16" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="T16" s="35" t="s">
+      <c r="X16" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="U16" s="35" t="s">
+      <c r="Y16" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="V16" s="35" t="s">
+      <c r="Z16" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="W16" s="35" t="s">
+      <c r="AA16" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="X16" s="35" t="s">
+      <c r="AB16" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="Y16" s="35" t="s">
+      <c r="AC16" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="Z16" s="35" t="s">
+      <c r="AD16" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="AA16" s="35" t="s">
+      <c r="AE16" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="AB16" s="35" t="s">
+      <c r="AF16" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="AC16" s="35" t="s">
+      <c r="AG16" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="AD16" s="35" t="s">
+      <c r="AH16" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="AE16" s="35" t="s">
+      <c r="AI16" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="AF16" s="35" t="s">
+      <c r="AJ16" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="AG16" s="35" t="s">
+      <c r="AK16" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="AH16" s="35" t="s">
+      <c r="AL16" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="AI16" s="35" t="s">
+      <c r="AM16" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="AJ16" s="35" t="s">
+      <c r="AN16" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="AK16" s="35" t="s">
+      <c r="AO16" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="AL16" s="35" t="s">
+      <c r="AP16" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="AM16" s="35" t="s">
+      <c r="AQ16" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="AN16" s="35" t="s">
+      <c r="AR16" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="AO16" s="35" t="s">
+      <c r="AS16" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="AP16" s="35" t="s">
+      <c r="AT16" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="AQ16" s="35" t="s">
+      <c r="AU16" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="AR16" s="35" t="s">
+      <c r="AV16" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="AS16" s="35" t="s">
+      <c r="AW16" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="AT16" s="35" t="s">
+      <c r="AX16" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="AU16" s="35" t="s">
+      <c r="AY16" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="AV16" s="35" t="s">
+      <c r="AZ16" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="AW16" s="35" t="s">
+      <c r="BA16" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="AX16" s="35" t="s">
+      <c r="BB16" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="AY16" s="35" t="s">
+      <c r="BC16" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="AZ16" s="35" t="s">
+      <c r="BD16" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="BA16" s="35" t="s">
+      <c r="BE16" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="BB16" s="35" t="s">
+      <c r="BF16" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="BC16" s="35" t="s">
+      <c r="BG16" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="BD16" s="35" t="s">
+      <c r="BH16" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="BE16" s="35" t="s">
+      <c r="BI16" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="BF16" s="35" t="s">
+      <c r="BJ16" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="BG16" s="35" t="s">
+      <c r="BK16" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="BH16" s="35" t="s">
+      <c r="BL16" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="BI16" s="35" t="s">
+      <c r="BM16" s="35" t="s">
         <v>226</v>
-      </c>
-      <c r="BJ16" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="BK16" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="BL16" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="BM16" s="35" t="s">
-        <v>230</v>
       </c>
       <c r="XEM16" s="52"/>
       <c r="XEN16" s="52"/>
@@ -7872,7 +7786,7 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:72">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7948,34 +7862,34 @@
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:16383">
       <c r="A3" s="25" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E3" s="27"/>
       <c r="F3" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="27" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
       <c r="O3" s="27"/>
       <c r="P3" s="39" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q3" s="40"/>
       <c r="R3" s="40"/>
@@ -8054,7 +7968,7 @@
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
       <c r="P4" s="43" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="45"/>
       <c r="R4" s="45"/>
@@ -8062,7 +7976,7 @@
       <c r="T4" s="45"/>
       <c r="U4" s="46"/>
       <c r="V4" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
@@ -8123,124 +8037,124 @@
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
       <c r="D5" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="M5" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="N5" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="26" t="s">
+      <c r="O5" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="P5" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="T5" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V5" s="39" t="s">
         <v>245</v>
-      </c>
-      <c r="M5" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="N5" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="O5" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="P5" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="R5" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="S5" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="T5" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="V5" s="39" t="s">
-        <v>249</v>
       </c>
       <c r="W5" s="40"/>
       <c r="X5" s="40"/>
       <c r="Y5" s="40"/>
       <c r="Z5" s="47"/>
       <c r="AA5" s="39" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AB5" s="40"/>
       <c r="AC5" s="40"/>
       <c r="AD5" s="40"/>
       <c r="AE5" s="47"/>
       <c r="AF5" s="39" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AG5" s="40"/>
       <c r="AH5" s="40"/>
       <c r="AI5" s="40"/>
       <c r="AJ5" s="47"/>
       <c r="AK5" s="39" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AL5" s="40"/>
       <c r="AM5" s="40"/>
       <c r="AN5" s="40"/>
       <c r="AO5" s="47"/>
       <c r="AP5" s="39" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AQ5" s="40"/>
       <c r="AR5" s="40"/>
       <c r="AS5" s="40"/>
       <c r="AT5" s="47"/>
       <c r="AU5" s="39" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AV5" s="40"/>
       <c r="AW5" s="40"/>
       <c r="AX5" s="40"/>
       <c r="AY5" s="47"/>
       <c r="AZ5" s="39" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="BA5" s="40"/>
       <c r="BB5" s="40"/>
       <c r="BC5" s="40"/>
       <c r="BD5" s="47"/>
       <c r="BE5" s="39" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="BF5" s="40"/>
       <c r="BG5" s="40"/>
       <c r="BH5" s="40"/>
       <c r="BI5" s="47"/>
       <c r="BJ5" s="39" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BK5" s="40"/>
       <c r="BL5" s="40"/>
       <c r="BM5" s="40"/>
       <c r="BN5" s="47"/>
       <c r="BO5" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="BP5" s="6"/>
       <c r="BQ5" s="6"/>
@@ -8274,154 +8188,154 @@
       <c r="T6" s="32"/>
       <c r="U6" s="32"/>
       <c r="V6" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z6" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="W6" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="X6" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z6" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="AA6" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE6" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="AB6" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC6" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="AD6" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE6" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="AF6" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG6" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH6" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI6" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ6" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="AG6" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH6" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="AI6" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="AJ6" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="AK6" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL6" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AM6" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN6" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO6" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="AL6" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AM6" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="AN6" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="AO6" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="AP6" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ6" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AR6" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AS6" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AT6" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="AQ6" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AR6" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="AS6" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="AT6" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="AU6" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AV6" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AW6" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AX6" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AY6" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="AV6" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AW6" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="AX6" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="AY6" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="AZ6" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="BA6" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="BB6" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="BC6" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="BD6" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="BA6" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB6" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="BC6" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="BD6" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="BE6" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="BF6" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="BG6" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="BH6" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="BI6" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="BF6" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="BG6" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="BH6" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="BI6" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="BJ6" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="BK6" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="BL6" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="BM6" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="BN6" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="BK6" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="BL6" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="BM6" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="BN6" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="BO6" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="BP6" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="BQ6" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="BR6" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="BS6" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="BP6" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="BQ6" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="BR6" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="BS6" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="XER6" s="24"/>
       <c r="XES6" s="24"/>
@@ -8430,10 +8344,10 @@
     </row>
     <row r="7" ht="12" customHeight="1" spans="1:16383">
       <c r="A7" s="33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C7" s="34">
         <v>1</v>
@@ -8649,217 +8563,217 @@
     </row>
     <row r="8" ht="63" spans="1:16383">
       <c r="A8" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="G8" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="H8" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="I8" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="J8" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="K8" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="L8" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="M8" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="N8" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="O8" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="P8" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="Q8" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="N8" s="35" t="s">
+      <c r="R8" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="O8" s="35" t="s">
+      <c r="S8" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="P8" s="35" t="s">
+      <c r="T8" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="Q8" s="35" t="s">
+      <c r="U8" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="R8" s="35" t="s">
+      <c r="V8" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="S8" s="35" t="s">
+      <c r="W8" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="T8" s="35" t="s">
+      <c r="X8" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="U8" s="35" t="s">
+      <c r="Y8" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="V8" s="35" t="s">
+      <c r="Z8" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="W8" s="35" t="s">
+      <c r="AA8" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="X8" s="35" t="s">
+      <c r="AB8" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="Y8" s="35" t="s">
+      <c r="AC8" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="Z8" s="35" t="s">
+      <c r="AD8" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="AA8" s="35" t="s">
+      <c r="AE8" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="AB8" s="35" t="s">
+      <c r="AF8" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="AC8" s="32" t="s">
+      <c r="AG8" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="AD8" s="32" t="s">
+      <c r="AH8" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="AE8" s="32" t="s">
+      <c r="AI8" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="AF8" s="32" t="s">
+      <c r="AJ8" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="AG8" s="32" t="s">
+      <c r="AK8" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="AH8" s="32" t="s">
+      <c r="AL8" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="AI8" s="32" t="s">
+      <c r="AM8" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="AJ8" s="32" t="s">
+      <c r="AN8" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="AK8" s="32" t="s">
+      <c r="AO8" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="AL8" s="32" t="s">
+      <c r="AP8" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="AM8" s="32" t="s">
+      <c r="AQ8" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="AN8" s="32" t="s">
+      <c r="AR8" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="AO8" s="32" t="s">
+      <c r="AS8" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="AP8" s="32" t="s">
+      <c r="AT8" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="AQ8" s="32" t="s">
+      <c r="AU8" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="AR8" s="32" t="s">
+      <c r="AV8" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="AS8" s="32" t="s">
+      <c r="AW8" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="AT8" s="32" t="s">
+      <c r="AX8" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="AU8" s="32" t="s">
+      <c r="AY8" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="AV8" s="32" t="s">
+      <c r="AZ8" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="AW8" s="32" t="s">
+      <c r="BA8" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="AX8" s="32" t="s">
+      <c r="BB8" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="AY8" s="32" t="s">
+      <c r="BC8" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="AZ8" s="32" t="s">
+      <c r="BD8" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="BA8" s="32" t="s">
+      <c r="BE8" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="BB8" s="32" t="s">
+      <c r="BF8" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="BC8" s="32" t="s">
+      <c r="BG8" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="BD8" s="32" t="s">
+      <c r="BH8" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="BE8" s="32" t="s">
+      <c r="BI8" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="BF8" s="32" t="s">
+      <c r="BJ8" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="BG8" s="32" t="s">
+      <c r="BK8" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="BH8" s="32" t="s">
+      <c r="BL8" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="BI8" s="32" t="s">
+      <c r="BM8" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="BJ8" s="32" t="s">
+      <c r="BN8" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="BK8" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="BL8" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="BM8" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="BN8" s="32" t="s">
-        <v>135</v>
-      </c>
       <c r="BO8" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="BP8" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ8" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="BR8" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="BS8" s="35" t="s">
         <v>168</v>
-      </c>
-      <c r="BP8" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="BQ8" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="BR8" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="BS8" s="35" t="s">
-        <v>172</v>
       </c>
       <c r="XER8" s="24"/>
       <c r="XES8" s="24"/>
@@ -8876,13 +8790,13 @@
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:16381">
       <c r="A11" s="37" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -8932,7 +8846,7 @@
       <c r="AW11" s="40"/>
       <c r="AX11" s="47"/>
       <c r="AY11" s="50" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AZ11" s="7"/>
       <c r="BA11" s="7"/>
@@ -8944,7 +8858,7 @@
       <c r="BG11" s="7"/>
       <c r="BH11" s="7"/>
       <c r="BI11" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="BJ11" s="5"/>
       <c r="BK11" s="5"/>
@@ -8982,7 +8896,7 @@
       <c r="A12" s="41"/>
       <c r="B12" s="42"/>
       <c r="C12" s="39" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -9019,7 +8933,7 @@
       <c r="AJ12" s="40"/>
       <c r="AK12" s="47"/>
       <c r="AL12" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AM12" s="6"/>
       <c r="AN12" s="6"/>
@@ -9027,17 +8941,17 @@
       <c r="AP12" s="6"/>
       <c r="AQ12" s="6"/>
       <c r="AR12" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AS12" s="6"/>
       <c r="AT12" s="6"/>
       <c r="AU12" s="6"/>
       <c r="AV12" s="6"/>
       <c r="AW12" s="13" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AX12" s="13" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AY12" s="7"/>
       <c r="AZ12" s="7"/>
@@ -9086,154 +9000,154 @@
       <c r="A13" s="41"/>
       <c r="B13" s="42"/>
       <c r="C13" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
       <c r="AE13" s="6"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
       <c r="AK13" s="6"/>
       <c r="AL13" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM13" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="AN13" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="AO13" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP13" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="AM13" s="13" t="s">
+      <c r="AQ13" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR13" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="AN13" s="13" t="s">
+      <c r="AS13" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="AO13" s="13" t="s">
+      <c r="AT13" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="AP13" s="13" t="s">
+      <c r="AU13" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="AQ13" s="44" t="s">
-        <v>263</v>
-      </c>
-      <c r="AR13" s="13" t="s">
+      <c r="AV13" s="13" t="s">
         <v>282</v>
-      </c>
-      <c r="AS13" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="AT13" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU13" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="AV13" s="13" t="s">
-        <v>286</v>
       </c>
       <c r="AW13" s="17"/>
       <c r="AX13" s="17"/>
       <c r="AY13" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ13" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="BA13" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="BB13" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="BC13" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="AZ13" s="10" t="s">
+      <c r="BD13" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="BA13" s="10" t="s">
+      <c r="BE13" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="BB13" s="10" t="s">
+      <c r="BF13" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="BC13" s="10" t="s">
+      <c r="BG13" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="BD13" s="10" t="s">
+      <c r="BH13" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="BE13" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="BF13" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="BG13" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="BH13" s="10" t="s">
-        <v>167</v>
-      </c>
       <c r="BI13" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="BJ13" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="BK13" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="BL13" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="BM13" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="BJ13" s="13" t="s">
+      <c r="BN13" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="BK13" s="13" t="s">
+      <c r="BO13" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="BL13" s="13" t="s">
+      <c r="BP13" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="BM13" s="13" t="s">
+      <c r="BQ13" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="BN13" s="13" t="s">
+      <c r="BR13" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="BO13" s="13" t="s">
+      <c r="BS13" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="BP13" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="BQ13" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="BR13" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="BS13" s="13" t="s">
-        <v>297</v>
-      </c>
       <c r="BT13" s="6" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="XEH13" s="22"/>
       <c r="XEI13" s="22"/>
@@ -9260,109 +9174,109 @@
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
       <c r="C14" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="H14" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="M14" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q14" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="N14" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="R14" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="V14" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="S14" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="T14" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="U14" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="V14" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="W14" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="X14" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z14" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA14" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="X14" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y14" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z14" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA14" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="AB14" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC14" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AD14" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE14" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF14" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="AC14" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AD14" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="AE14" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="AF14" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="AG14" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH14" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AI14" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AJ14" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AK14" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="AH14" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AI14" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="AJ14" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="AK14" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="AL14" s="48"/>
       <c r="AM14" s="48"/>
@@ -9422,10 +9336,10 @@
     </row>
     <row r="15" spans="1:16381">
       <c r="A15" s="33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C15" s="32">
         <v>70</v>
@@ -9660,220 +9574,220 @@
     </row>
     <row r="16" ht="195" spans="1:16381">
       <c r="A16" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C16" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="H16" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="I16" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="J16" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="K16" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="L16" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="M16" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="N16" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="O16" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="L16" s="35" t="s">
+      <c r="P16" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="M16" s="35" t="s">
+      <c r="Q16" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="N16" s="35" t="s">
+      <c r="R16" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="O16" s="35" t="s">
+      <c r="S16" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="P16" s="35" t="s">
+      <c r="T16" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="Q16" s="35" t="s">
+      <c r="U16" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="R16" s="35" t="s">
+      <c r="V16" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="S16" s="35" t="s">
+      <c r="W16" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="T16" s="35" t="s">
+      <c r="X16" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="U16" s="35" t="s">
+      <c r="Y16" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="V16" s="35" t="s">
+      <c r="Z16" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="W16" s="35" t="s">
+      <c r="AA16" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="X16" s="35" t="s">
+      <c r="AB16" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="Y16" s="35" t="s">
+      <c r="AC16" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="Z16" s="35" t="s">
+      <c r="AD16" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="AA16" s="35" t="s">
+      <c r="AE16" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="AB16" s="35" t="s">
+      <c r="AF16" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="AC16" s="35" t="s">
+      <c r="AG16" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="AD16" s="35" t="s">
+      <c r="AH16" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="AE16" s="35" t="s">
+      <c r="AI16" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="AF16" s="35" t="s">
+      <c r="AJ16" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="AG16" s="35" t="s">
+      <c r="AK16" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="AH16" s="35" t="s">
+      <c r="AL16" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="AI16" s="35" t="s">
+      <c r="AM16" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="AJ16" s="35" t="s">
+      <c r="AN16" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="AK16" s="35" t="s">
+      <c r="AO16" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="AL16" s="35" t="s">
+      <c r="AP16" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="AM16" s="35" t="s">
+      <c r="AQ16" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="AN16" s="35" t="s">
+      <c r="AR16" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="AO16" s="35" t="s">
+      <c r="AS16" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="AP16" s="35" t="s">
+      <c r="AT16" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="AQ16" s="35" t="s">
+      <c r="AU16" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="AR16" s="35" t="s">
+      <c r="AV16" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="AS16" s="35" t="s">
+      <c r="AW16" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="AT16" s="35" t="s">
+      <c r="AX16" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="AU16" s="35" t="s">
+      <c r="AY16" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="AV16" s="35" t="s">
+      <c r="AZ16" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="AW16" s="35" t="s">
+      <c r="BA16" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="AX16" s="35" t="s">
+      <c r="BB16" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="AY16" s="35" t="s">
+      <c r="BC16" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="AZ16" s="35" t="s">
+      <c r="BD16" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="BA16" s="35" t="s">
+      <c r="BE16" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="BB16" s="35" t="s">
+      <c r="BF16" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="BC16" s="35" t="s">
+      <c r="BG16" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="BD16" s="35" t="s">
+      <c r="BH16" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="BE16" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="BF16" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="BG16" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="BH16" s="35" t="s">
-        <v>230</v>
-      </c>
       <c r="BI16" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="BJ16" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK16" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="BL16" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="BM16" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="BJ16" s="8" t="s">
+      <c r="BN16" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="BK16" s="8" t="s">
+      <c r="BO16" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="BL16" s="8" t="s">
+      <c r="BP16" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="BM16" s="8" t="s">
+      <c r="BQ16" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="BN16" s="8" t="s">
+      <c r="BR16" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="BO16" s="8" t="s">
+      <c r="BS16" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="BP16" s="8" t="s">
+      <c r="BT16" s="8" t="s">
         <v>305</v>
-      </c>
-      <c r="BQ16" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="BR16" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="BS16" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="BT16" s="8" t="s">
-        <v>309</v>
       </c>
       <c r="XEH16" s="22"/>
       <c r="XEI16" s="22"/>
@@ -10035,7 +9949,7 @@
   <sheetData>
     <row r="1" ht="19" customHeight="1" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10066,34 +9980,34 @@
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:27">
       <c r="A3" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>317</v>
-      </c>
       <c r="J3" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -10107,7 +10021,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="12" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AA3" s="20"/>
     </row>
@@ -10122,110 +10036,110 @@
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
       <c r="J4" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="N4" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="K4" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="M4" s="13" t="s">
+      <c r="O4" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q4" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="R4" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="S4" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="P4" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>296</v>
-      </c>
       <c r="T4" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U4" s="13" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="V4" s="16"/>
       <c r="AA4" s="21"/>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:26">
       <c r="A5" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="N5" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="V5" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="V5" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="X5"/>
       <c r="Y5"/>
@@ -10277,7 +10191,7 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10303,34 +10217,34 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="H3" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>336</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10347,34 +10261,34 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/excel-model/单位问卷—机关—打印版.xlsx
+++ b/src/resources/excel-model/单位问卷—机关—打印版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="单位情况" sheetId="7" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="流失人才" sheetId="12" r:id="rId5"/>
     <sheet name="增量" sheetId="18" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1869,7 +1869,7 @@
 年限（年）</t>
   </si>
   <si>
-    <t>流入地</t>
+    <t>流入地（省/市)</t>
   </si>
   <si>
     <t>人才层次</t>
@@ -1955,8 +1955,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -2085,13 +2085,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2099,7 +2092,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2107,7 +2108,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2128,8 +2137,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2144,46 +2215,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2191,38 +2222,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2251,43 +2251,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2299,25 +2263,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2335,7 +2287,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2353,19 +2335,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2377,61 +2425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2534,11 +2534,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2554,30 +2584,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2608,6 +2614,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2616,21 +2631,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2639,10 +2639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2651,133 +2651,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3337,22 +3337,22 @@
   <sheetPr/>
   <dimension ref="A3:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" width="10.6333333333333" style="70" customWidth="1"/>
-    <col min="5" max="5" width="10.6333333333333" style="71" customWidth="1"/>
-    <col min="6" max="10" width="10.6333333333333" style="70" customWidth="1"/>
-    <col min="11" max="11" width="37.725" style="70" customWidth="1"/>
-    <col min="12" max="12" width="31.3666666666667" style="70" customWidth="1"/>
+    <col min="1" max="4" width="10.6296296296296" style="70" customWidth="1"/>
+    <col min="5" max="5" width="10.6296296296296" style="71" customWidth="1"/>
+    <col min="6" max="10" width="10.6296296296296" style="70" customWidth="1"/>
+    <col min="11" max="11" width="37.7222222222222" style="70" customWidth="1"/>
+    <col min="12" max="12" width="31.3703703703704" style="70" customWidth="1"/>
     <col min="13" max="16373" width="8" style="70" customWidth="1"/>
     <col min="16374" max="16379" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="18.75" spans="1:10">
+    <row r="3" ht="17.4" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="I3" s="73"/>
       <c r="J3" s="73"/>
     </row>
-    <row r="4" ht="18.75" spans="1:10">
+    <row r="4" ht="17.4" spans="1:10">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -3378,7 +3378,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" ht="18.75" spans="1:10">
+    <row r="5" ht="17.4" spans="1:10">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3390,7 +3390,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" ht="18.75" spans="1:10">
+    <row r="6" ht="17.4" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3416,7 +3416,7 @@
       <c r="I7" s="74"/>
       <c r="J7" s="74"/>
     </row>
-    <row r="8" ht="14.25" spans="1:10">
+    <row r="8" ht="15.6" spans="1:10">
       <c r="A8" s="72"/>
       <c r="B8" s="72"/>
       <c r="C8" s="72"/>
@@ -3428,7 +3428,7 @@
       <c r="I8" s="74"/>
       <c r="J8" s="74"/>
     </row>
-    <row r="9" ht="14.25" spans="1:10">
+    <row r="9" ht="15.6" spans="1:10">
       <c r="A9" s="72"/>
       <c r="B9" s="72"/>
       <c r="C9" s="72"/>
@@ -3440,7 +3440,7 @@
       <c r="I9" s="74"/>
       <c r="J9" s="74"/>
     </row>
-    <row r="10" ht="14.25" spans="1:10">
+    <row r="10" ht="15.6" spans="1:10">
       <c r="A10" s="72"/>
       <c r="B10" s="72"/>
       <c r="C10" s="72"/>
@@ -3452,7 +3452,7 @@
       <c r="I10" s="74"/>
       <c r="J10" s="74"/>
     </row>
-    <row r="11" ht="14.25" spans="1:10">
+    <row r="11" ht="15.6" spans="1:10">
       <c r="A11" s="72"/>
       <c r="B11" s="72"/>
       <c r="C11" s="72"/>
@@ -3464,7 +3464,7 @@
       <c r="I11" s="74"/>
       <c r="J11" s="74"/>
     </row>
-    <row r="12" ht="14.25" spans="1:10">
+    <row r="12" ht="15.6" spans="1:10">
       <c r="A12" s="72"/>
       <c r="B12" s="72"/>
       <c r="C12" s="72"/>
@@ -3476,7 +3476,7 @@
       <c r="I12" s="74"/>
       <c r="J12" s="74"/>
     </row>
-    <row r="13" s="70" customFormat="1" ht="14.25" spans="1:10">
+    <row r="13" s="70" customFormat="1" ht="15.6" spans="1:10">
       <c r="A13" s="72"/>
       <c r="B13" s="72"/>
       <c r="C13" s="72"/>
@@ -3488,7 +3488,7 @@
       <c r="I13" s="74"/>
       <c r="J13" s="74"/>
     </row>
-    <row r="14" s="70" customFormat="1" ht="15.75" spans="1:12">
+    <row r="14" s="70" customFormat="1" ht="15.6" spans="1:12">
       <c r="A14" s="72"/>
       <c r="B14" s="72"/>
       <c r="C14" s="72"/>
@@ -3506,7 +3506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" s="70" customFormat="1" ht="15.75" spans="1:12">
+    <row r="15" s="70" customFormat="1" ht="15.6" spans="1:12">
       <c r="A15" s="72"/>
       <c r="B15" s="72"/>
       <c r="C15" s="72"/>
@@ -3542,7 +3542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" s="70" customFormat="1" ht="15.75" spans="1:12">
+    <row r="17" s="70" customFormat="1" ht="15.6" spans="1:12">
       <c r="A17" s="72"/>
       <c r="B17" s="72"/>
       <c r="C17" s="72"/>
@@ -3560,7 +3560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" s="70" customFormat="1" ht="15.75" spans="1:12">
+    <row r="18" s="70" customFormat="1" ht="15.6" spans="1:12">
       <c r="A18" s="72"/>
       <c r="B18" s="72"/>
       <c r="C18" s="72"/>
@@ -3578,7 +3578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" s="70" customFormat="1" ht="15.75" spans="1:12">
+    <row r="19" s="70" customFormat="1" ht="15.6" spans="1:12">
       <c r="A19" s="72"/>
       <c r="B19" s="72"/>
       <c r="C19" s="72"/>
@@ -3596,7 +3596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" s="70" customFormat="1" ht="15.75" spans="1:12">
+    <row r="20" s="70" customFormat="1" ht="15.6" spans="1:12">
       <c r="A20" s="72"/>
       <c r="B20" s="72"/>
       <c r="C20" s="72"/>
@@ -3614,7 +3614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" s="70" customFormat="1" ht="15.75" spans="1:12">
+    <row r="21" s="70" customFormat="1" ht="15.6" spans="1:12">
       <c r="A21" s="72"/>
       <c r="B21" s="72"/>
       <c r="C21" s="72"/>
@@ -3632,7 +3632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" s="70" customFormat="1" ht="15.75" spans="1:12">
+    <row r="22" s="70" customFormat="1" ht="15.6" spans="1:12">
       <c r="A22" s="72"/>
       <c r="B22" s="72"/>
       <c r="C22" s="72"/>
@@ -3650,7 +3650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" s="70" customFormat="1" ht="15.75" spans="1:12">
+    <row r="23" s="70" customFormat="1" ht="15.6" spans="1:12">
       <c r="A23" s="72"/>
       <c r="B23" s="72"/>
       <c r="C23" s="72"/>
@@ -3668,7 +3668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" s="70" customFormat="1" ht="14.25" spans="1:10">
+    <row r="24" s="70" customFormat="1" ht="15.6" spans="1:10">
       <c r="A24" s="72"/>
       <c r="B24" s="72"/>
       <c r="C24" s="72"/>
@@ -3680,7 +3680,7 @@
       <c r="I24" s="74"/>
       <c r="J24" s="74"/>
     </row>
-    <row r="25" s="70" customFormat="1" ht="14.25" spans="1:10">
+    <row r="25" s="70" customFormat="1" ht="15.6" spans="1:10">
       <c r="A25" s="72"/>
       <c r="B25" s="72"/>
       <c r="C25" s="72"/>
@@ -3692,7 +3692,7 @@
       <c r="I25" s="74"/>
       <c r="J25" s="74"/>
     </row>
-    <row r="26" ht="14.25" spans="1:10">
+    <row r="26" ht="15.6" spans="1:10">
       <c r="A26" s="72"/>
       <c r="B26" s="72"/>
       <c r="C26" s="72"/>
@@ -3704,7 +3704,7 @@
       <c r="I26" s="74"/>
       <c r="J26" s="74"/>
     </row>
-    <row r="27" ht="14.25" spans="1:10">
+    <row r="27" ht="15.6" spans="1:10">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -3716,7 +3716,7 @@
       <c r="I27" s="74"/>
       <c r="J27" s="74"/>
     </row>
-    <row r="28" ht="14.25" spans="1:10">
+    <row r="28" ht="15.6" spans="1:10">
       <c r="A28" s="72"/>
       <c r="B28" s="72"/>
       <c r="C28" s="72"/>
@@ -3728,7 +3728,7 @@
       <c r="I28" s="74"/>
       <c r="J28" s="74"/>
     </row>
-    <row r="29" ht="14.25" spans="1:10">
+    <row r="29" ht="15.6" spans="1:10">
       <c r="A29" s="72"/>
       <c r="B29" s="72"/>
       <c r="C29" s="72"/>
@@ -3740,7 +3740,7 @@
       <c r="I29" s="74"/>
       <c r="J29" s="74"/>
     </row>
-    <row r="30" ht="14.25" spans="1:10">
+    <row r="30" ht="15.6" spans="1:10">
       <c r="A30" s="72"/>
       <c r="B30" s="72"/>
       <c r="C30" s="72"/>
@@ -3752,7 +3752,7 @@
       <c r="I30" s="74"/>
       <c r="J30" s="74"/>
     </row>
-    <row r="31" ht="14.25" spans="1:10">
+    <row r="31" ht="15.6" spans="1:10">
       <c r="A31" s="72"/>
       <c r="B31" s="72"/>
       <c r="C31" s="72"/>
@@ -3764,7 +3764,7 @@
       <c r="I31" s="74"/>
       <c r="J31" s="74"/>
     </row>
-    <row r="32" ht="14.25" spans="1:10">
+    <row r="32" ht="15.6" spans="1:10">
       <c r="A32" s="72"/>
       <c r="B32" s="72"/>
       <c r="C32" s="72"/>
@@ -3776,7 +3776,7 @@
       <c r="I32" s="74"/>
       <c r="J32" s="74"/>
     </row>
-    <row r="33" ht="14.25" spans="1:10">
+    <row r="33" ht="15.6" spans="1:10">
       <c r="A33" s="72"/>
       <c r="B33" s="72"/>
       <c r="C33" s="72"/>
@@ -3788,7 +3788,7 @@
       <c r="I33" s="74"/>
       <c r="J33" s="74"/>
     </row>
-    <row r="34" ht="14.25" spans="1:10">
+    <row r="34" ht="15.6" spans="1:10">
       <c r="A34" s="72"/>
       <c r="B34" s="72"/>
       <c r="C34" s="72"/>
@@ -3800,7 +3800,7 @@
       <c r="I34" s="74"/>
       <c r="J34" s="74"/>
     </row>
-    <row r="35" ht="14.25" spans="1:10">
+    <row r="35" ht="15.6" spans="1:10">
       <c r="A35" s="72"/>
       <c r="B35" s="72"/>
       <c r="C35" s="72"/>
@@ -3812,7 +3812,7 @@
       <c r="I35" s="74"/>
       <c r="J35" s="74"/>
     </row>
-    <row r="36" ht="14.25" spans="1:10">
+    <row r="36" ht="15.6" spans="1:10">
       <c r="A36" s="72"/>
       <c r="B36" s="72"/>
       <c r="C36" s="72"/>
@@ -3824,7 +3824,7 @@
       <c r="I36" s="74"/>
       <c r="J36" s="74"/>
     </row>
-    <row r="37" ht="14.25" spans="1:10">
+    <row r="37" ht="15.6" spans="1:10">
       <c r="A37" s="72"/>
       <c r="B37" s="72"/>
       <c r="C37" s="72"/>
@@ -3836,7 +3836,7 @@
       <c r="I37" s="74"/>
       <c r="J37" s="74"/>
     </row>
-    <row r="38" ht="14.25" spans="1:10">
+    <row r="38" ht="15.6" spans="1:10">
       <c r="A38" s="72"/>
       <c r="B38" s="72"/>
       <c r="C38" s="72"/>
@@ -3848,7 +3848,7 @@
       <c r="I38" s="74"/>
       <c r="J38" s="74"/>
     </row>
-    <row r="39" ht="14.25" spans="1:10">
+    <row r="39" ht="15.6" spans="1:10">
       <c r="A39" s="72"/>
       <c r="B39" s="72"/>
       <c r="C39" s="72"/>
@@ -3860,7 +3860,7 @@
       <c r="I39" s="74"/>
       <c r="J39" s="74"/>
     </row>
-    <row r="40" ht="14.25" spans="1:10">
+    <row r="40" ht="15.6" spans="1:10">
       <c r="A40" s="72"/>
       <c r="B40" s="72"/>
       <c r="C40" s="72"/>
@@ -3872,7 +3872,7 @@
       <c r="I40" s="74"/>
       <c r="J40" s="74"/>
     </row>
-    <row r="41" ht="14.25" spans="1:10">
+    <row r="41" ht="15.6" spans="1:10">
       <c r="A41" s="72"/>
       <c r="B41" s="72"/>
       <c r="C41" s="72"/>
@@ -3884,7 +3884,7 @@
       <c r="I41" s="74"/>
       <c r="J41" s="74"/>
     </row>
-    <row r="42" ht="14.25" spans="1:10">
+    <row r="42" ht="15.6" spans="1:10">
       <c r="A42" s="72"/>
       <c r="B42" s="72"/>
       <c r="C42" s="72"/>
@@ -3896,7 +3896,7 @@
       <c r="I42" s="74"/>
       <c r="J42" s="74"/>
     </row>
-    <row r="43" ht="14.25" spans="1:10">
+    <row r="43" ht="15.6" spans="1:10">
       <c r="A43" s="72"/>
       <c r="B43" s="72"/>
       <c r="C43" s="72"/>
@@ -3908,7 +3908,7 @@
       <c r="I43" s="74"/>
       <c r="J43" s="74"/>
     </row>
-    <row r="44" ht="14.25" spans="1:10">
+    <row r="44" ht="15.6" spans="1:10">
       <c r="A44" s="72"/>
       <c r="B44" s="72"/>
       <c r="C44" s="72"/>
@@ -3920,7 +3920,7 @@
       <c r="I44" s="74"/>
       <c r="J44" s="74"/>
     </row>
-    <row r="45" ht="14.25" spans="1:10">
+    <row r="45" ht="15.6" spans="1:10">
       <c r="A45" s="72"/>
       <c r="B45" s="72"/>
       <c r="C45" s="72"/>
@@ -3932,7 +3932,7 @@
       <c r="I45" s="74"/>
       <c r="J45" s="74"/>
     </row>
-    <row r="46" ht="14.25" spans="1:10">
+    <row r="46" ht="15.6" spans="1:10">
       <c r="A46" s="72"/>
       <c r="B46" s="72"/>
       <c r="C46" s="72"/>
@@ -3944,7 +3944,7 @@
       <c r="I46" s="74"/>
       <c r="J46" s="74"/>
     </row>
-    <row r="47" ht="14.25" spans="1:10">
+    <row r="47" ht="15.6" spans="1:10">
       <c r="A47" s="72"/>
       <c r="B47" s="72"/>
       <c r="C47" s="72"/>
@@ -3979,17 +3979,17 @@
       <selection activeCell="CA16" sqref="CA16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.63333333333333" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="2.62962962962963" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="4.26666666666667" style="51" customWidth="1"/>
-    <col min="2" max="5" width="2.63333333333333" style="51" customWidth="1"/>
-    <col min="6" max="110" width="2.63333333333333" style="61" customWidth="1"/>
-    <col min="111" max="127" width="2.63333333333333" style="51" customWidth="1"/>
-    <col min="128" max="136" width="2.09166666666667" style="51" customWidth="1"/>
-    <col min="137" max="16384" width="2.63333333333333" style="51"/>
+    <col min="1" max="1" width="4.26851851851852" style="51" customWidth="1"/>
+    <col min="2" max="5" width="2.62962962962963" style="51" customWidth="1"/>
+    <col min="6" max="110" width="2.62962962962963" style="61" customWidth="1"/>
+    <col min="111" max="127" width="2.62962962962963" style="51" customWidth="1"/>
+    <col min="128" max="136" width="2.09259259259259" style="51" customWidth="1"/>
+    <col min="137" max="16384" width="2.62962962962963" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" s="59" customFormat="1" ht="21" spans="1:110">
+    <row r="1" s="59" customFormat="1" ht="20.4" spans="1:110">
       <c r="A1" s="56" t="s">
         <v>22</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" ht="63" spans="1:112">
+    <row r="8" ht="67.2" spans="1:112">
       <c r="A8" s="7" t="s">
         <v>66</v>
       </c>
@@ -5015,7 +5015,7 @@
       <c r="BM11" s="7"/>
       <c r="BN11" s="67"/>
     </row>
-    <row r="12" ht="13.5" spans="1:66">
+    <row r="12" spans="1:66">
       <c r="A12" s="63"/>
       <c r="B12" s="14"/>
       <c r="C12" s="58" t="s">
@@ -5367,7 +5367,7 @@
       <c r="BM14" s="4"/>
       <c r="BN14" s="68"/>
     </row>
-    <row r="15" ht="13.5" spans="1:66">
+    <row r="15" spans="1:66">
       <c r="A15" s="64" t="s">
         <v>64</v>
       </c>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="BN15" s="68"/>
     </row>
-    <row r="16" ht="63" spans="1:66">
+    <row r="16" ht="67.2" spans="1:66">
       <c r="A16" s="7" t="s">
         <v>66</v>
       </c>
@@ -5860,19 +5860,19 @@
       <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.0916666666667" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="18.0925925925926" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="4" style="51" customWidth="1"/>
-    <col min="2" max="2" width="2.63333333333333" style="51" customWidth="1"/>
-    <col min="3" max="6" width="2.63333333333333" style="52" customWidth="1"/>
-    <col min="7" max="8" width="2.63333333333333" style="53" customWidth="1"/>
-    <col min="9" max="117" width="2.63333333333333" style="54" customWidth="1"/>
-    <col min="118" max="16371" width="18.0916666666667" style="54" customWidth="1"/>
-    <col min="16372" max="16381" width="18.0916666666667" style="52" customWidth="1"/>
-    <col min="16382" max="16384" width="18.0916666666667" style="51"/>
+    <col min="2" max="2" width="2.62962962962963" style="51" customWidth="1"/>
+    <col min="3" max="6" width="2.62962962962963" style="52" customWidth="1"/>
+    <col min="7" max="8" width="2.62962962962963" style="53" customWidth="1"/>
+    <col min="9" max="117" width="2.62962962962963" style="54" customWidth="1"/>
+    <col min="118" max="16371" width="18.0925925925926" style="54" customWidth="1"/>
+    <col min="16372" max="16381" width="18.0925925925926" style="52" customWidth="1"/>
+    <col min="16382" max="16384" width="18.0925925925926" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:65">
+    <row r="1" ht="17.4" spans="1:65">
       <c r="A1" s="55" t="s">
         <v>227</v>
       </c>
@@ -6595,7 +6595,7 @@
       <c r="XFB7" s="52"/>
       <c r="XFC7" s="52"/>
     </row>
-    <row r="8" ht="63" spans="1:16383">
+    <row r="8" ht="67.2" spans="1:16383">
       <c r="A8" s="7" t="s">
         <v>229</v>
       </c>
@@ -7470,7 +7470,7 @@
       <c r="XEZ15" s="51"/>
       <c r="XFA15" s="51"/>
     </row>
-    <row r="16" ht="63" spans="1:16381">
+    <row r="16" ht="67.2" spans="1:16381">
       <c r="A16" s="7" t="s">
         <v>229</v>
       </c>
@@ -7773,18 +7773,18 @@
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.0916666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="18.0925925925926" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="2.63333333333333" customWidth="1"/>
-    <col min="3" max="6" width="2.63333333333333" style="22" customWidth="1"/>
-    <col min="7" max="8" width="2.63333333333333" style="23" customWidth="1"/>
-    <col min="9" max="117" width="2.63333333333333" style="24" customWidth="1"/>
-    <col min="118" max="16371" width="18.0916666666667" style="24" customWidth="1"/>
-    <col min="16372" max="16381" width="18.0916666666667" style="22" customWidth="1"/>
+    <col min="2" max="2" width="2.62962962962963" customWidth="1"/>
+    <col min="3" max="6" width="2.62962962962963" style="22" customWidth="1"/>
+    <col min="7" max="8" width="2.62962962962963" style="23" customWidth="1"/>
+    <col min="9" max="117" width="2.62962962962963" style="24" customWidth="1"/>
+    <col min="118" max="16371" width="18.0925925925926" style="24" customWidth="1"/>
+    <col min="16372" max="16381" width="18.0925925925926" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:72">
+    <row r="1" ht="17.4" spans="1:72">
       <c r="A1" s="1" t="s">
         <v>230</v>
       </c>
@@ -8561,7 +8561,7 @@
       <c r="XFB7" s="22"/>
       <c r="XFC7" s="22"/>
     </row>
-    <row r="8" ht="63" spans="1:16383">
+    <row r="8" ht="67.2" spans="1:16383">
       <c r="A8" s="7" t="s">
         <v>260</v>
       </c>
@@ -9572,7 +9572,7 @@
       <c r="XEZ15"/>
       <c r="XFA15"/>
     </row>
-    <row r="16" ht="195" spans="1:16381">
+    <row r="16" ht="243" spans="1:16381">
       <c r="A16" s="7" t="s">
         <v>260</v>
       </c>
@@ -9915,36 +9915,36 @@
   <sheetPr/>
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.81666666666667" defaultRowHeight="12" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="1.81481481481481" defaultRowHeight="12" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="2.18333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.09166666666667" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.725" style="9" customWidth="1"/>
-    <col min="4" max="4" width="5.36666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.81666666666667" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.725" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.54166666666667" style="3" customWidth="1"/>
-    <col min="8" max="8" width="4.725" style="3" customWidth="1"/>
-    <col min="9" max="9" width="6.45" style="3" customWidth="1"/>
-    <col min="10" max="21" width="3.63333333333333" style="3" customWidth="1"/>
-    <col min="22" max="22" width="7.375" style="3" customWidth="1"/>
-    <col min="23" max="26" width="2.63333333333333" style="3" customWidth="1"/>
-    <col min="27" max="27" width="3.63333333333333" style="3" customWidth="1"/>
-    <col min="28" max="28" width="2.18333333333333" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.2666666666667" style="3" customWidth="1"/>
-    <col min="30" max="30" width="2.63333333333333" style="3" customWidth="1"/>
-    <col min="31" max="31" width="9.725" style="3" customWidth="1"/>
-    <col min="32" max="32" width="11.3666666666667" style="3" customWidth="1"/>
-    <col min="33" max="33" width="3.63333333333333" style="3" customWidth="1"/>
-    <col min="34" max="34" width="13.0916666666667" style="3" customWidth="1"/>
-    <col min="35" max="35" width="15.3666666666667" style="3" customWidth="1"/>
-    <col min="36" max="36" width="10.45" style="3" customWidth="1"/>
-    <col min="37" max="37" width="2.63333333333333" style="3" customWidth="1"/>
-    <col min="38" max="16384" width="1.81666666666667" style="3"/>
+    <col min="1" max="1" width="2.18518518518518" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.09259259259259" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.7222222222222" style="9" customWidth="1"/>
+    <col min="4" max="4" width="5.37037037037037" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.81481481481481" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.7222222222222" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.5462962962963" style="3" customWidth="1"/>
+    <col min="8" max="8" width="4.72222222222222" style="3" customWidth="1"/>
+    <col min="9" max="9" width="6.4537037037037" style="3" customWidth="1"/>
+    <col min="10" max="21" width="3.62962962962963" style="3" customWidth="1"/>
+    <col min="22" max="22" width="7.37962962962963" style="3" customWidth="1"/>
+    <col min="23" max="26" width="2.62962962962963" style="3" customWidth="1"/>
+    <col min="27" max="27" width="3.62962962962963" style="3" customWidth="1"/>
+    <col min="28" max="28" width="2.18518518518518" style="2" customWidth="1"/>
+    <col min="29" max="29" width="12.2685185185185" style="3" customWidth="1"/>
+    <col min="30" max="30" width="2.62962962962963" style="3" customWidth="1"/>
+    <col min="31" max="31" width="9.72222222222222" style="3" customWidth="1"/>
+    <col min="32" max="32" width="11.3703703703704" style="3" customWidth="1"/>
+    <col min="33" max="33" width="3.62962962962963" style="3" customWidth="1"/>
+    <col min="34" max="34" width="13.0925925925926" style="3" customWidth="1"/>
+    <col min="35" max="35" width="15.3703703703704" style="3" customWidth="1"/>
+    <col min="36" max="36" width="10.4537037037037" style="3" customWidth="1"/>
+    <col min="37" max="37" width="2.62962962962963" style="3" customWidth="1"/>
+    <col min="38" max="16384" width="1.81481481481481" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1" spans="1:27">
@@ -10178,18 +10178,18 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="2" max="2" width="10.8166666666667" customWidth="1"/>
-    <col min="3" max="3" width="5.81666666666667" customWidth="1"/>
-    <col min="4" max="4" width="13.3666666666667" customWidth="1"/>
-    <col min="5" max="5" width="12.5416666666667" customWidth="1"/>
-    <col min="7" max="7" width="14.2666666666667" customWidth="1"/>
-    <col min="8" max="8" width="14.725" customWidth="1"/>
-    <col min="9" max="9" width="11.8166666666667" customWidth="1"/>
+    <col min="2" max="2" width="10.8148148148148" customWidth="1"/>
+    <col min="3" max="3" width="5.81481481481481" customWidth="1"/>
+    <col min="4" max="4" width="13.3703703703704" customWidth="1"/>
+    <col min="5" max="5" width="12.5462962962963" customWidth="1"/>
+    <col min="7" max="7" width="14.2685185185185" customWidth="1"/>
+    <col min="8" max="8" width="14.7222222222222" customWidth="1"/>
+    <col min="9" max="9" width="11.8148148148148" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:10">
+    <row r="1" ht="17.4" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>330</v>
       </c>
